--- a/data/dollar.xlsx
+++ b/data/dollar.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97C90DBE-2D78-4EE5-AEBB-41C11FAB099C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2454D486-3F69-4E6E-A6B1-1EFE2D311361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{0C7F4D8B-4AA1-4F0B-A9AD-F9F9DFB27C49}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7377,7 +7377,7 @@
         <v>105.54</v>
       </c>
       <c r="C579" s="3">
-        <f t="shared" ref="C579:C642" si="9">(B579/B591-1)*100</f>
+        <f t="shared" ref="C579:C638" si="9">(B579/B591-1)*100</f>
         <v>1.5979976896419057</v>
       </c>
     </row>

--- a/data/dollar.xlsx
+++ b/data/dollar.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C651"/>
+  <dimension ref="A1:C652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7129 +486,7140 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B2" t="n">
+        <v>108.2870025634766</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.945963625942904</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
         <v>45695</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>108.0960006713867</v>
       </c>
-      <c r="C2" t="n">
-        <v>3.391679264836656</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45688</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>108.04</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>3.72503840245777</v>
+      <c r="C3" t="n">
+        <v>3.391679264836633</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45657</v>
+        <v>45688</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>108.37</v>
+        <v>108.04</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>4.938510700106535</v>
+        <v>3.72503840245777</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>108.49</v>
+        <v>108.37</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>7.066021908615405</v>
+        <v>4.938510700106535</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45596</v>
+        <v>45626</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>105.74</v>
+        <v>108.49</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>2.164251207729473</v>
+        <v>7.066021908615405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>103.98</v>
+        <v>105.74</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>-2.512657041065058</v>
+        <v>2.164251207729473</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>100.78</v>
+        <v>103.98</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>-5.121446055356804</v>
+        <v>-2.512657041065058</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>101.7</v>
+        <v>100.78</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>-1.852924145917778</v>
+        <v>-5.121446055356804</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>104.1</v>
+        <v>101.7</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>2.199096799528766</v>
+        <v>-1.852924145917778</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>105.87</v>
+        <v>104.1</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>2.876299679331473</v>
+        <v>2.199096799528766</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>104.67</v>
+        <v>105.87</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0.3258890060385378</v>
+        <v>2.876299679331473</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>106.22</v>
+        <v>104.67</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>4.48554003541215</v>
+        <v>0.3258890060385378</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>104.55</v>
+        <v>106.22</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>1.990049751243772</v>
+        <v>4.48554003541215</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>104.16</v>
+        <v>104.55</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-0.677028702202731</v>
+        <v>1.990049751243772</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>103.27</v>
+        <v>104.16</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>1.145935357492656</v>
+        <v>-0.677028702202731</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>101.33</v>
+        <v>103.27</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>-2.115533230293665</v>
+        <v>1.145935357492656</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>103.5</v>
+        <v>101.33</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>-2.312411514865509</v>
+        <v>-2.115533230293665</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>106.66</v>
+        <v>103.5</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-4.366538151170096</v>
+        <v>-2.312411514865509</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>106.22</v>
+        <v>106.66</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>-5.262219051016769</v>
+        <v>-4.366538151170096</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>103.62</v>
+        <v>106.22</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>-4.673413063477461</v>
+        <v>-5.262219051016769</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>101.86</v>
+        <v>103.62</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>-3.814919735599631</v>
+        <v>-4.673413063477461</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>102.91</v>
+        <v>101.86</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>-1.690867405426066</v>
+        <v>-3.814919735599631</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>104.33</v>
+        <v>102.91</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>2.535626535626534</v>
+        <v>-1.690867405426066</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>101.66</v>
+        <v>104.33</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>-1.262626262626265</v>
+        <v>2.535626535626534</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>102.51</v>
+        <v>101.66</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>4.272200183094288</v>
+        <v>-1.262626262626265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>104.87</v>
+        <v>102.51</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>8.437596939303083</v>
+        <v>4.272200183094288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>102.1</v>
+        <v>104.87</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>5.759270768593328</v>
+        <v>8.437596939303083</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>103.52</v>
+        <v>102.1</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>7.867041783890794</v>
+        <v>5.759270768593328</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>105.95</v>
+        <v>103.52</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>10.37608084175437</v>
+        <v>7.867041783890794</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>111.53</v>
+        <v>105.95</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>18.49766255843603</v>
+        <v>10.37608084175437</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>112.12</v>
+        <v>111.53</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>18.98546110580494</v>
+        <v>18.49766255843603</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>108.7</v>
+        <v>112.12</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>17.34859116916767</v>
+        <v>18.98546110580494</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>105.9</v>
+        <v>108.7</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>14.89638711077357</v>
+        <v>17.34859116916767</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>104.68</v>
+        <v>105.9</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>13.24102120294246</v>
+        <v>14.89638711077357</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>101.75</v>
+        <v>104.68</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>13.01788292791293</v>
+        <v>13.24102120294246</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>102.96</v>
+        <v>101.75</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>12.79579316389132</v>
+        <v>13.01788292791293</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>98.31</v>
+        <v>102.96</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>5.448889842325433</v>
+        <v>12.79579316389132</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>96.70999999999999</v>
+        <v>98.31</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>6.415052816901401</v>
+        <v>5.448889842325433</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>96.54000000000001</v>
+        <v>96.70999999999999</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>6.579818944579396</v>
+        <v>6.415052816901401</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>95.97</v>
+        <v>96.54000000000001</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>6.704469646430966</v>
+        <v>6.579818944579396</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>95.98999999999999</v>
+        <v>95.97</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>4.484597801240864</v>
+        <v>6.704469646430966</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>94.12</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.08507018290089263</v>
+        <v>4.484597801240864</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>94.23</v>
+        <v>94.12</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.362125892001286</v>
+        <v>0.08507018290089263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>92.63</v>
+        <v>94.23</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.5317994356414113</v>
+        <v>0.362125892001286</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>92.17</v>
+        <v>92.63</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>-1.264059989287625</v>
+        <v>0.5317994356414113</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>92.44</v>
+        <v>92.17</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>-5.082657357018173</v>
+        <v>-1.264059989287625</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>90.03</v>
+        <v>92.44</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>-8.450274557657112</v>
+        <v>-5.082657357018173</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>91.28</v>
+        <v>90.03</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>-7.816602706523934</v>
+        <v>-8.450274557657112</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>93.23</v>
+        <v>91.28</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>-5.87582029278142</v>
+        <v>-7.816602706523934</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>90.88</v>
+        <v>93.23</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>-7.388158565168657</v>
+        <v>-5.87582029278142</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>90.58</v>
+        <v>90.88</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>-6.992504363897734</v>
+        <v>-7.388158565168657</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>89.94</v>
+        <v>90.58</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>-6.691565515094933</v>
+        <v>-6.992504363897734</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>91.87</v>
+        <v>89.94</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>-6.512669176757901</v>
+        <v>-6.691565515094933</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>94.04000000000001</v>
+        <v>91.87</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>-3.400102722136611</v>
+        <v>-6.512669176757901</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>93.89</v>
+        <v>94.04000000000001</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>-5.524250352183535</v>
+        <v>-3.400102722136611</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>92.14</v>
+        <v>93.89</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>-6.854023453295587</v>
+        <v>-5.524250352183535</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>93.34999999999999</v>
+        <v>92.14</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>-5.247665448639871</v>
+        <v>-6.854023453295587</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>97.39</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>1.310725059814843</v>
+        <v>-5.247665448639871</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>98.34</v>
+        <v>97.39</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.6035805626598556</v>
+        <v>1.310725059814843</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>99.02</v>
+        <v>98.34</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>1.579811243331952</v>
+        <v>0.6035805626598556</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>99.05</v>
+        <v>99.02</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>1.819490131578938</v>
+        <v>1.579811243331952</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>98.13</v>
+        <v>99.05</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>2.048668885191351</v>
+        <v>1.819490131578938</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>97.39</v>
+        <v>98.13</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>1.893701611215737</v>
+        <v>2.048668885191351</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>96.39</v>
+        <v>97.39</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.2287615680565569</v>
+        <v>1.893701611215737</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>98.27</v>
+        <v>96.39</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>1.028066207463763</v>
+        <v>0.2287615680565569</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>97.34999999999999</v>
+        <v>98.27</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.2265005662514197</v>
+        <v>1.028066207463763</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>99.38</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>4.467570692736267</v>
+        <v>0.2265005662514197</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>98.92</v>
+        <v>99.38</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>3.973092285053603</v>
+        <v>4.467570692736267</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43646</v>
+        <v>43677</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>98.52</v>
+        <v>98.92</v>
       </c>
       <c r="C70" s="3" t="n">
-        <v>4.265001587469586</v>
+        <v>3.973092285053603</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43616</v>
+        <v>43646</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>96.13</v>
+        <v>98.52</v>
       </c>
       <c r="C71" s="3" t="n">
-        <v>1.574387151310219</v>
+        <v>4.265001587469586</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>43585</v>
+        <v>43616</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>97.75</v>
+        <v>96.13</v>
       </c>
       <c r="C72" s="3" t="n">
-        <v>4.000425577189071</v>
+        <v>1.574387151310219</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>43555</v>
+        <v>43585</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>97.48</v>
+        <v>97.75</v>
       </c>
       <c r="C73" s="3" t="n">
-        <v>6.141114982578388</v>
+        <v>4.000425577189071</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>43524</v>
+        <v>43555</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>97.28</v>
+        <v>97.48</v>
       </c>
       <c r="C74" s="3" t="n">
-        <v>8.124930532399688</v>
+        <v>6.141114982578388</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>96.16</v>
+        <v>97.28</v>
       </c>
       <c r="C75" s="3" t="n">
-        <v>6.125151749255053</v>
+        <v>8.124930532399688</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>43465</v>
+        <v>43496</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>95.58</v>
+        <v>96.16</v>
       </c>
       <c r="C76" s="3" t="n">
-        <v>7.236620666442284</v>
+        <v>6.125151749255053</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>43434</v>
+        <v>43465</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>96.17</v>
+        <v>95.58</v>
       </c>
       <c r="C77" s="3" t="n">
-        <v>4.396439426834564</v>
+        <v>7.236620666442284</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43404</v>
+        <v>43434</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>97.27</v>
+        <v>96.17</v>
       </c>
       <c r="C78" s="3" t="n">
-        <v>4.535196131112307</v>
+        <v>4.396439426834564</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>43373</v>
+        <v>43404</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>97.13</v>
+        <v>97.27</v>
       </c>
       <c r="C79" s="3" t="n">
-        <v>2.728714965626655</v>
+        <v>4.535196131112307</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43343</v>
+        <v>43373</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>95.13</v>
+        <v>97.13</v>
       </c>
       <c r="C80" s="3" t="n">
-        <v>2.202406532015466</v>
+        <v>2.728714965626655</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>43312</v>
+        <v>43343</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>95.14</v>
+        <v>95.13</v>
       </c>
       <c r="C81" s="3" t="n">
-        <v>2.66537174921766</v>
+        <v>2.202406532015466</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>43281</v>
+        <v>43312</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>94.48999999999999</v>
+        <v>95.14</v>
       </c>
       <c r="C82" s="3" t="n">
-        <v>1.755330605212135</v>
+        <v>2.66537174921766</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>43251</v>
+        <v>43281</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>94.64</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="C83" s="3" t="n">
-        <v>-1.03523998745163</v>
+        <v>1.755330605212135</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>43220</v>
+        <v>43251</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>93.98999999999999</v>
+        <v>94.64</v>
       </c>
       <c r="C84" s="3" t="n">
-        <v>-3.023111844820481</v>
+        <v>-1.03523998745163</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>91.84</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="C85" s="3" t="n">
-        <v>-7.279151943462892</v>
+        <v>-3.023111844820481</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>43159</v>
+        <v>43190</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>89.97</v>
+        <v>91.84</v>
       </c>
       <c r="C86" s="3" t="n">
-        <v>-10.34379671150971</v>
+        <v>-7.279151943462892</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>43131</v>
+        <v>43159</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>90.61</v>
+        <v>89.97</v>
       </c>
       <c r="C87" s="3" t="n">
-        <v>-10.3935917721519</v>
+        <v>-10.34379671150971</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>43100</v>
+        <v>43131</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>89.13</v>
+        <v>90.61</v>
       </c>
       <c r="C88" s="3" t="n">
-        <v>-10.43111245100996</v>
+        <v>-10.3935917721519</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>43069</v>
+        <v>43100</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>92.12</v>
+        <v>89.13</v>
       </c>
       <c r="C89" s="3" t="n">
-        <v>-9.871832501712152</v>
+        <v>-10.43111245100996</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>43039</v>
+        <v>43069</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>93.05</v>
+        <v>92.12</v>
       </c>
       <c r="C90" s="3" t="n">
-        <v>-8.325123152709358</v>
+        <v>-9.871832501712152</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>43008</v>
+        <v>43039</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>94.55</v>
+        <v>93.05</v>
       </c>
       <c r="C91" s="3" t="n">
-        <v>-3.951645672490856</v>
+        <v>-8.325123152709358</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>42978</v>
+        <v>43008</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>93.08</v>
+        <v>94.55</v>
       </c>
       <c r="C92" s="3" t="n">
-        <v>-2.493190865283879</v>
+        <v>-3.951645672490856</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>42947</v>
+        <v>42978</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>92.67</v>
+        <v>93.08</v>
       </c>
       <c r="C93" s="3" t="n">
-        <v>-3.488856488231618</v>
+        <v>-2.493190865283879</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>42916</v>
+        <v>42947</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>92.86</v>
+        <v>92.67</v>
       </c>
       <c r="C94" s="3" t="n">
-        <v>-2.794933528734433</v>
+        <v>-3.488856488231618</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>42886</v>
+        <v>42916</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>95.63</v>
+        <v>92.86</v>
       </c>
       <c r="C95" s="3" t="n">
-        <v>-0.5304763885999653</v>
+        <v>-2.794933528734433</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>42855</v>
+        <v>42886</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>96.92</v>
+        <v>95.63</v>
       </c>
       <c r="C96" s="3" t="n">
-        <v>1.074147460631969</v>
+        <v>-0.5304763885999653</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>42825</v>
+        <v>42855</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>99.05</v>
+        <v>96.92</v>
       </c>
       <c r="C97" s="3" t="n">
-        <v>6.413837559088953</v>
+        <v>1.074147460631969</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>42794</v>
+        <v>42825</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>100.35</v>
+        <v>99.05</v>
       </c>
       <c r="C98" s="3" t="n">
-        <v>6.089438629876298</v>
+        <v>6.413837559088953</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>42766</v>
+        <v>42794</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>101.12</v>
+        <v>100.35</v>
       </c>
       <c r="C99" s="3" t="n">
-        <v>2.963038387129635</v>
+        <v>6.089438629876298</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>42735</v>
+        <v>42766</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>99.51000000000001</v>
+        <v>101.12</v>
       </c>
       <c r="C100" s="3" t="n">
-        <v>-0.1003915269551237</v>
+        <v>2.963038387129635</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>42704</v>
+        <v>42735</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>102.21</v>
+        <v>99.51000000000001</v>
       </c>
       <c r="C101" s="3" t="n">
-        <v>3.629727263510096</v>
+        <v>-0.1003915269551237</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>42674</v>
+        <v>42704</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>101.5</v>
+        <v>102.21</v>
       </c>
       <c r="C102" s="3" t="n">
-        <v>1.327742837176804</v>
+        <v>3.629727263510096</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>42643</v>
+        <v>42674</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>98.44</v>
+        <v>101.5</v>
       </c>
       <c r="C103" s="3" t="n">
-        <v>1.536874677668898</v>
+        <v>1.327742837176804</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>42613</v>
+        <v>42643</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>95.45999999999999</v>
+        <v>98.44</v>
       </c>
       <c r="C104" s="3" t="n">
-        <v>-0.9237156201349239</v>
+        <v>1.536874677668898</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>42582</v>
+        <v>42613</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>96.02</v>
+        <v>95.45999999999999</v>
       </c>
       <c r="C105" s="3" t="n">
-        <v>0.2087246921310904</v>
+        <v>-0.9237156201349239</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>42551</v>
+        <v>42582</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>95.53</v>
+        <v>96.02</v>
       </c>
       <c r="C106" s="3" t="n">
-        <v>-1.859461680706798</v>
+        <v>0.2087246921310904</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>42521</v>
+        <v>42551</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>96.14</v>
+        <v>95.53</v>
       </c>
       <c r="C107" s="3" t="n">
-        <v>0.6806995496910773</v>
+        <v>-1.859461680706798</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>42490</v>
+        <v>42521</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>95.89</v>
+        <v>96.14</v>
       </c>
       <c r="C108" s="3" t="n">
-        <v>-1.0525229594469</v>
+        <v>0.6806995496910773</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>42460</v>
+        <v>42490</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>93.08</v>
+        <v>95.89</v>
       </c>
       <c r="C109" s="3" t="n">
-        <v>-1.606765327695558</v>
+        <v>-1.0525229594469</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>42429</v>
+        <v>42460</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>94.59</v>
+        <v>93.08</v>
       </c>
       <c r="C110" s="3" t="n">
-        <v>-3.832858885725898</v>
+        <v>-1.606765327695558</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>42400</v>
+        <v>42429</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>98.20999999999999</v>
+        <v>94.59</v>
       </c>
       <c r="C111" s="3" t="n">
-        <v>3.03189257238774</v>
+        <v>-3.832858885725898</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>42369</v>
+        <v>42400</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>99.61</v>
+        <v>98.20999999999999</v>
       </c>
       <c r="C112" s="3" t="n">
-        <v>5.073839662447255</v>
+        <v>3.03189257238774</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>42338</v>
+        <v>42369</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>98.63</v>
+        <v>99.61</v>
       </c>
       <c r="C113" s="3" t="n">
-        <v>9.261105572172369</v>
+        <v>5.073839662447255</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>42308</v>
+        <v>42338</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>100.17</v>
+        <v>98.63</v>
       </c>
       <c r="C114" s="3" t="n">
-        <v>13.36577636939793</v>
+        <v>9.261105572172369</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>42277</v>
+        <v>42308</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>96.95</v>
+        <v>100.17</v>
       </c>
       <c r="C115" s="3" t="n">
-        <v>11.53934652554074</v>
+        <v>13.36577636939793</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>42247</v>
+        <v>42277</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>96.34999999999999</v>
+        <v>96.95</v>
       </c>
       <c r="C116" s="3" t="n">
-        <v>12.11310216430068</v>
+        <v>11.53934652554074</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>42216</v>
+        <v>42247</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>95.81999999999999</v>
+        <v>96.34999999999999</v>
       </c>
       <c r="C117" s="3" t="n">
-        <v>15.79456193353474</v>
+        <v>12.11310216430068</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>97.34</v>
+        <v>95.81999999999999</v>
       </c>
       <c r="C118" s="3" t="n">
-        <v>19.49423029707833</v>
+        <v>15.79456193353474</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>42155</v>
+        <v>42185</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>95.48999999999999</v>
+        <v>97.34</v>
       </c>
       <c r="C119" s="3" t="n">
-        <v>19.69165204311856</v>
+        <v>19.49423029707833</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>42124</v>
+        <v>42155</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>96.91</v>
+        <v>95.48999999999999</v>
       </c>
       <c r="C120" s="3" t="n">
-        <v>20.57981834017668</v>
+        <v>19.69165204311856</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>42094</v>
+        <v>42124</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>94.59999999999999</v>
+        <v>96.91</v>
       </c>
       <c r="C121" s="3" t="n">
-        <v>19.03863092991065</v>
+        <v>20.57981834017668</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>98.36</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C122" s="3" t="n">
-        <v>22.79650436953808</v>
+        <v>19.03863092991065</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>95.31999999999999</v>
+        <v>98.36</v>
       </c>
       <c r="C123" s="3" t="n">
-        <v>19.61350232149579</v>
+        <v>22.79650436953808</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>42004</v>
+        <v>42035</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>94.8</v>
+        <v>95.31999999999999</v>
       </c>
       <c r="C124" s="3" t="n">
-        <v>16.59082523674824</v>
+        <v>19.61350232149579</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>41973</v>
+        <v>42004</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>90.27</v>
+        <v>94.8</v>
       </c>
       <c r="C125" s="3" t="n">
-        <v>12.78110944527735</v>
+        <v>16.59082523674824</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>41943</v>
+        <v>41973</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>88.36</v>
+        <v>90.27</v>
       </c>
       <c r="C126" s="3" t="n">
-        <v>9.519087754090227</v>
+        <v>12.78110944527735</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>41912</v>
+        <v>41943</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>86.92</v>
+        <v>88.36</v>
       </c>
       <c r="C127" s="3" t="n">
-        <v>8.392567651826921</v>
+        <v>9.519087754090227</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>85.94</v>
+        <v>86.92</v>
       </c>
       <c r="C128" s="3" t="n">
-        <v>7.130391423585136</v>
+        <v>8.392567651826921</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>41851</v>
+        <v>41882</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>82.75</v>
+        <v>85.94</v>
       </c>
       <c r="C129" s="3" t="n">
-        <v>0.8039956145693639</v>
+        <v>7.130391423585136</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>41820</v>
+        <v>41851</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>81.45999999999999</v>
+        <v>82.75</v>
       </c>
       <c r="C130" s="3" t="n">
-        <v>0.0122774708410045</v>
+        <v>0.8039956145693639</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>41790</v>
+        <v>41820</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>79.78</v>
+        <v>81.45999999999999</v>
       </c>
       <c r="C131" s="3" t="n">
-        <v>-4.041375992302143</v>
+        <v>0.0122774708410045</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>41759</v>
+        <v>41790</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>80.37</v>
+        <v>79.78</v>
       </c>
       <c r="C132" s="3" t="n">
-        <v>-3.471054527984629</v>
+        <v>-4.041375992302143</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>41729</v>
+        <v>41759</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>79.47</v>
+        <v>80.37</v>
       </c>
       <c r="C133" s="3" t="n">
-        <v>-2.788990825688076</v>
+        <v>-3.471054527984629</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>41698</v>
+        <v>41729</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>80.09999999999999</v>
+        <v>79.47</v>
       </c>
       <c r="C134" s="3" t="n">
-        <v>-3.749098774333104</v>
+        <v>-2.788990825688076</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>41670</v>
+        <v>41698</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>79.69</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="C135" s="3" t="n">
-        <v>-2.757779133618066</v>
+        <v>-3.749098774333104</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>41639</v>
+        <v>41670</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>81.31</v>
+        <v>79.69</v>
       </c>
       <c r="C136" s="3" t="n">
-        <v>2.651180406514331</v>
+        <v>-2.757779133618066</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>41608</v>
+        <v>41639</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>80.04000000000001</v>
+        <v>81.31</v>
       </c>
       <c r="C137" s="3" t="n">
-        <v>0.338473110191817</v>
+        <v>2.651180406514331</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>41578</v>
+        <v>41608</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>80.68000000000001</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="C138" s="3" t="n">
-        <v>0.6612601372426807</v>
+        <v>0.338473110191817</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>41547</v>
+        <v>41578</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>80.19</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="C139" s="3" t="n">
-        <v>0.3378378378378288</v>
+        <v>0.6612601372426807</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>41517</v>
+        <v>41547</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>80.22</v>
+        <v>80.19</v>
       </c>
       <c r="C140" s="3" t="n">
-        <v>0.3628174652821059</v>
+        <v>0.3378378378378288</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>41486</v>
+        <v>41517</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>82.09</v>
+        <v>80.22</v>
       </c>
       <c r="C141" s="3" t="n">
-        <v>1.083610392808776</v>
+        <v>0.3628174652821059</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>41455</v>
+        <v>41486</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>81.45</v>
+        <v>82.09</v>
       </c>
       <c r="C142" s="3" t="n">
-        <v>-1.439980638915772</v>
+        <v>1.083610392808776</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>41425</v>
+        <v>41455</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>83.14</v>
+        <v>81.45</v>
       </c>
       <c r="C143" s="3" t="n">
-        <v>1.849810118828876</v>
+        <v>-1.439980638915772</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>41394</v>
+        <v>41425</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>83.26000000000001</v>
+        <v>83.14</v>
       </c>
       <c r="C144" s="3" t="n">
-        <v>0.2649325626204124</v>
+        <v>1.849810118828876</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>41364</v>
+        <v>41394</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>81.75</v>
+        <v>83.26000000000001</v>
       </c>
       <c r="C145" s="3" t="n">
-        <v>3.76999238385376</v>
+        <v>0.2649325626204124</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>41333</v>
+        <v>41364</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>83.22</v>
+        <v>81.75</v>
       </c>
       <c r="C146" s="3" t="n">
-        <v>5.341772151898727</v>
+        <v>3.76999238385376</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>41305</v>
+        <v>41333</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>81.95</v>
+        <v>83.22</v>
       </c>
       <c r="C147" s="3" t="n">
-        <v>4.07670815341632</v>
+        <v>5.341772151898727</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>41274</v>
+        <v>41305</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>79.20999999999999</v>
+        <v>81.95</v>
       </c>
       <c r="C148" s="3" t="n">
-        <v>-0.1008954470929635</v>
+        <v>4.07670815341632</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>41243</v>
+        <v>41274</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>79.77</v>
+        <v>79.20999999999999</v>
       </c>
       <c r="C149" s="3" t="n">
-        <v>-0.5113494637066784</v>
+        <v>-0.1008954470929635</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>41213</v>
+        <v>41243</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>80.15000000000001</v>
+        <v>79.77</v>
       </c>
       <c r="C150" s="3" t="n">
-        <v>2.258229140086776</v>
+        <v>-0.5113494637066784</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>41182</v>
+        <v>41213</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>79.92</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="C151" s="3" t="n">
-        <v>4.923198109491933</v>
+        <v>2.258229140086776</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>41152</v>
+        <v>41182</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>79.93000000000001</v>
+        <v>79.92</v>
       </c>
       <c r="C152" s="3" t="n">
-        <v>1.75684277530237</v>
+        <v>4.923198109491933</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>41121</v>
+        <v>41152</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>81.20999999999999</v>
+        <v>79.93000000000001</v>
       </c>
       <c r="C153" s="3" t="n">
-        <v>9.565569347004832</v>
+        <v>1.75684277530237</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>41090</v>
+        <v>41121</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>82.64</v>
+        <v>81.20999999999999</v>
       </c>
       <c r="C154" s="3" t="n">
-        <v>11.82679296346414</v>
+        <v>9.565569347004832</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>41060</v>
+        <v>41090</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>81.63</v>
+        <v>82.64</v>
       </c>
       <c r="C155" s="3" t="n">
-        <v>9.865410497981152</v>
+        <v>11.82679296346414</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>41029</v>
+        <v>41060</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>83.04000000000001</v>
+        <v>81.63</v>
       </c>
       <c r="C156" s="3" t="n">
-        <v>11.2540192926045</v>
+        <v>9.865410497981152</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>40999</v>
+        <v>41029</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>78.78</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="C157" s="3" t="n">
-        <v>8.021390374331538</v>
+        <v>11.2540192926045</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>40968</v>
+        <v>40999</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>79</v>
+        <v>78.78</v>
       </c>
       <c r="C158" s="3" t="n">
-        <v>4.139203796467172</v>
+        <v>8.021390374331538</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>40939</v>
+        <v>40968</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>78.73999999999999</v>
+        <v>79</v>
       </c>
       <c r="C159" s="3" t="n">
-        <v>2.406034594875783</v>
+        <v>4.139203796467172</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>40908</v>
+        <v>40939</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>79.29000000000001</v>
+        <v>78.73999999999999</v>
       </c>
       <c r="C160" s="3" t="n">
-        <v>2.006947124662295</v>
+        <v>2.406034594875783</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>40877</v>
+        <v>40908</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>80.18000000000001</v>
+        <v>79.29000000000001</v>
       </c>
       <c r="C161" s="3" t="n">
-        <v>1.45514361634822</v>
+        <v>2.006947124662295</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>40847</v>
+        <v>40877</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>78.38</v>
+        <v>80.18000000000001</v>
       </c>
       <c r="C162" s="3" t="n">
-        <v>-3.461017366670771</v>
+        <v>1.45514361634822</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>40816</v>
+        <v>40847</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>76.17</v>
+        <v>78.38</v>
       </c>
       <c r="C163" s="3" t="n">
-        <v>-1.423579655752549</v>
+        <v>-3.461017366670771</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>40786</v>
+        <v>40816</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>78.55</v>
+        <v>76.17</v>
       </c>
       <c r="C164" s="3" t="n">
-        <v>-0.215955284552849</v>
+        <v>-1.423579655752549</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>40755</v>
+        <v>40786</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>74.12</v>
+        <v>78.55</v>
       </c>
       <c r="C165" s="3" t="n">
-        <v>-10.91346153846153</v>
+        <v>-0.215955284552849</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>40724</v>
+        <v>40755</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>73.90000000000001</v>
+        <v>74.12</v>
       </c>
       <c r="C166" s="3" t="n">
-        <v>-9.369634535197447</v>
+        <v>-10.91346153846153</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>40694</v>
+        <v>40724</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>74.3</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C167" s="3" t="n">
-        <v>-13.62473843292258</v>
+        <v>-9.369634535197447</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>40663</v>
+        <v>40694</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>74.64</v>
+        <v>74.3</v>
       </c>
       <c r="C168" s="3" t="n">
-        <v>-13.80066982330523</v>
+        <v>-13.62473843292258</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>40633</v>
+        <v>40663</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>72.93000000000001</v>
+        <v>74.64</v>
       </c>
       <c r="C169" s="3" t="n">
-        <v>-10.91975082447783</v>
+        <v>-13.80066982330523</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>40602</v>
+        <v>40633</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>75.86</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="C170" s="3" t="n">
-        <v>-6.426544961144687</v>
+        <v>-10.91975082447783</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>40574</v>
+        <v>40602</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>76.89</v>
+        <v>75.86</v>
       </c>
       <c r="C171" s="3" t="n">
-        <v>-4.318068690890986</v>
+        <v>-6.426544961144687</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>40543</v>
+        <v>40574</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>77.73</v>
+        <v>76.89</v>
       </c>
       <c r="C172" s="3" t="n">
-        <v>-2.17719607349609</v>
+        <v>-4.318068690890986</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>40512</v>
+        <v>40543</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>79.03</v>
+        <v>77.73</v>
       </c>
       <c r="C173" s="3" t="n">
-        <v>1.502697148728482</v>
+        <v>-2.17719607349609</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>40482</v>
+        <v>40512</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>81.19</v>
+        <v>79.03</v>
       </c>
       <c r="C174" s="3" t="n">
-        <v>8.571810644557365</v>
+        <v>1.502697148728482</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>40451</v>
+        <v>40482</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>77.27</v>
+        <v>81.19</v>
       </c>
       <c r="C175" s="3" t="n">
-        <v>1.271297509829616</v>
+        <v>8.571810644557365</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>40421</v>
+        <v>40451</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>78.72</v>
+        <v>77.27</v>
       </c>
       <c r="C176" s="3" t="n">
-        <v>2.700587084148709</v>
+        <v>1.271297509829616</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>40390</v>
+        <v>40421</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>83.2</v>
+        <v>78.72</v>
       </c>
       <c r="C177" s="3" t="n">
-        <v>6.434693616476905</v>
+        <v>2.700587084148709</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>40359</v>
+        <v>40390</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>81.54000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="C178" s="3" t="n">
-        <v>4.071474154435251</v>
+        <v>6.434693616476905</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>40329</v>
+        <v>40359</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>86.02</v>
+        <v>81.54000000000001</v>
       </c>
       <c r="C179" s="3" t="n">
-        <v>7.310379241516962</v>
+        <v>4.071474154435251</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>40298</v>
+        <v>40329</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>86.59</v>
+        <v>86.02</v>
       </c>
       <c r="C180" s="3" t="n">
-        <v>9.289410576801703</v>
+        <v>7.310379241516962</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>40268</v>
+        <v>40298</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>81.87</v>
+        <v>86.59</v>
       </c>
       <c r="C181" s="3" t="n">
-        <v>-3.477953312897886</v>
+        <v>9.289410576801703</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>40237</v>
+        <v>40268</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>81.06999999999999</v>
+        <v>81.87</v>
       </c>
       <c r="C182" s="3" t="n">
-        <v>-5.192375160799923</v>
+        <v>-3.477953312897886</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>40209</v>
+        <v>40237</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>80.36</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="C183" s="3" t="n">
-        <v>-8.857888170579564</v>
+        <v>-5.192375160799923</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>40178</v>
+        <v>40209</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>79.45999999999999</v>
+        <v>80.36</v>
       </c>
       <c r="C184" s="3" t="n">
-        <v>-7.42164744261914</v>
+        <v>-8.857888170579564</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>40147</v>
+        <v>40178</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>77.86</v>
+        <v>79.45999999999999</v>
       </c>
       <c r="C185" s="3" t="n">
-        <v>-4.054220579174372</v>
+        <v>-7.42164744261914</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>40117</v>
+        <v>40147</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>74.78</v>
+        <v>77.86</v>
       </c>
       <c r="C186" s="3" t="n">
-        <v>-13.56911696717521</v>
+        <v>-4.054220579174372</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>40086</v>
+        <v>40117</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>76.3</v>
+        <v>74.78</v>
       </c>
       <c r="C187" s="3" t="n">
-        <v>-10.89571411888357</v>
+        <v>-13.56911696717521</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>40056</v>
+        <v>40086</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>76.65000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="C188" s="3" t="n">
-        <v>-3.524229074889862</v>
+        <v>-10.89571411888357</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>40025</v>
+        <v>40056</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>78.17</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C189" s="3" t="n">
-        <v>1.020935642284826</v>
+        <v>-3.524229074889862</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>39994</v>
+        <v>40025</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>78.34999999999999</v>
+        <v>78.17</v>
       </c>
       <c r="C190" s="3" t="n">
-        <v>6.991670080568069</v>
+        <v>1.020935642284826</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>39964</v>
+        <v>39994</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>80.16</v>
+        <v>78.34999999999999</v>
       </c>
       <c r="C191" s="3" t="n">
-        <v>10.6265525807342</v>
+        <v>6.991670080568069</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>39933</v>
+        <v>39964</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>79.23</v>
+        <v>80.16</v>
       </c>
       <c r="C192" s="3" t="n">
-        <v>8.712952799121854</v>
+        <v>10.6265525807342</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>39903</v>
+        <v>39933</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>84.81999999999999</v>
+        <v>79.23</v>
       </c>
       <c r="C193" s="3" t="n">
-        <v>16.97696869397323</v>
+        <v>8.712952799121854</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>39872</v>
+        <v>39903</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>85.51000000000001</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="C194" s="3" t="n">
-        <v>19.09470752089138</v>
+        <v>16.97696869397323</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>39844</v>
+        <v>39872</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>88.17</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="C195" s="3" t="n">
-        <v>19.61741961741963</v>
+        <v>19.09470752089138</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>39813</v>
+        <v>39844</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>85.83</v>
+        <v>88.17</v>
       </c>
       <c r="C196" s="3" t="n">
-        <v>14.16600159616919</v>
+        <v>19.61741961741963</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>39782</v>
+        <v>39813</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>81.15000000000001</v>
+        <v>85.83</v>
       </c>
       <c r="C197" s="3" t="n">
-        <v>5.81562133263791</v>
+        <v>14.16600159616919</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>39752</v>
+        <v>39782</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>86.52</v>
+        <v>81.15000000000001</v>
       </c>
       <c r="C198" s="3" t="n">
-        <v>13.6178594878529</v>
+        <v>5.81562133263791</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>39721</v>
+        <v>39752</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>85.63</v>
+        <v>86.52</v>
       </c>
       <c r="C199" s="3" t="n">
-        <v>11.96391213389121</v>
+        <v>13.6178594878529</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>39691</v>
+        <v>39721</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>79.45</v>
+        <v>85.63</v>
       </c>
       <c r="C200" s="3" t="n">
-        <v>2.225939269171384</v>
+        <v>11.96391213389121</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>39660</v>
+        <v>39691</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>77.38</v>
+        <v>79.45</v>
       </c>
       <c r="C201" s="3" t="n">
-        <v>-4.220819408342624</v>
+        <v>2.225939269171384</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>39629</v>
+        <v>39660</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>73.23</v>
+        <v>77.38</v>
       </c>
       <c r="C202" s="3" t="n">
-        <v>-9.335149189055336</v>
+        <v>-4.220819408342624</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>39599</v>
+        <v>39629</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>72.45999999999999</v>
+        <v>73.23</v>
       </c>
       <c r="C203" s="3" t="n">
-        <v>-11.54785156250001</v>
+        <v>-9.335149189055336</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>39568</v>
+        <v>39599</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>72.88</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="C204" s="3" t="n">
-        <v>-11.44592952612394</v>
+        <v>-11.54785156250001</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>39538</v>
+        <v>39568</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>72.51000000000001</v>
+        <v>72.88</v>
       </c>
       <c r="C205" s="3" t="n">
-        <v>-10.97605893186003</v>
+        <v>-11.44592952612394</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>39507</v>
+        <v>39538</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>71.8</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="C206" s="3" t="n">
-        <v>-13.42095743398047</v>
+        <v>-10.97605893186003</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>39478</v>
+        <v>39507</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>73.70999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="C207" s="3" t="n">
-        <v>-11.79849228191935</v>
+        <v>-13.42095743398047</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>39447</v>
+        <v>39478</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>75.18000000000001</v>
+        <v>73.70999999999999</v>
       </c>
       <c r="C208" s="3" t="n">
-        <v>-11.14525469802623</v>
+        <v>-11.79849228191935</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>39416</v>
+        <v>39447</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>76.69</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="C209" s="3" t="n">
-        <v>-8.397037744863834</v>
+        <v>-11.14525469802623</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>39386</v>
+        <v>39416</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>76.15000000000001</v>
+        <v>76.69</v>
       </c>
       <c r="C210" s="3" t="n">
-        <v>-8.164495899662317</v>
+        <v>-8.397037744863834</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>39355</v>
+        <v>39386</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>76.48</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="C211" s="3" t="n">
-        <v>-10.36099390529769</v>
+        <v>-8.164495899662317</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>39325</v>
+        <v>39355</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>77.72</v>
+        <v>76.48</v>
       </c>
       <c r="C212" s="3" t="n">
-        <v>-9.596370827032686</v>
+        <v>-10.36099390529769</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>39294</v>
+        <v>39325</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>80.79000000000001</v>
+        <v>77.72</v>
       </c>
       <c r="C213" s="3" t="n">
-        <v>-5.008818342151667</v>
+        <v>-9.596370827032686</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>39263</v>
+        <v>39294</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>80.77</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="C214" s="3" t="n">
-        <v>-5.31066822977726</v>
+        <v>-5.008818342151667</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>39233</v>
+        <v>39263</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>81.92</v>
+        <v>80.77</v>
       </c>
       <c r="C215" s="3" t="n">
-        <v>-3.872330438864113</v>
+        <v>-5.31066822977726</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>39202</v>
+        <v>39233</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>82.3</v>
+        <v>81.92</v>
       </c>
       <c r="C216" s="3" t="n">
-        <v>-2.85646836638338</v>
+        <v>-3.872330438864113</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>39172</v>
+        <v>39202</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>81.45</v>
+        <v>82.3</v>
       </c>
       <c r="C217" s="3" t="n">
-        <v>-5.411682731390077</v>
+        <v>-2.85646836638338</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>39141</v>
+        <v>39172</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>82.93000000000001</v>
+        <v>81.45</v>
       </c>
       <c r="C218" s="3" t="n">
-        <v>-7.578290426836065</v>
+        <v>-5.411682731390077</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>39113</v>
+        <v>39141</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>83.56999999999999</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="C219" s="3" t="n">
-        <v>-7.257796027078022</v>
+        <v>-7.578290426836065</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>39082</v>
+        <v>39113</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>84.61</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C220" s="3" t="n">
-        <v>-4.889838129496393</v>
+        <v>-7.257796027078022</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>39051</v>
+        <v>39082</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>83.72</v>
+        <v>84.61</v>
       </c>
       <c r="C221" s="3" t="n">
-        <v>-8.171547658220913</v>
+        <v>-4.889838129496393</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>39021</v>
+        <v>39051</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>82.92</v>
+        <v>83.72</v>
       </c>
       <c r="C222" s="3" t="n">
-        <v>-9.446325215681984</v>
+        <v>-8.171547658220913</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>38990</v>
+        <v>39021</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>85.31999999999999</v>
+        <v>82.92</v>
       </c>
       <c r="C223" s="3" t="n">
-        <v>-5.273676029754637</v>
+        <v>-9.446325215681984</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>38960</v>
+        <v>38990</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>85.97</v>
+        <v>85.31999999999999</v>
       </c>
       <c r="C224" s="3" t="n">
-        <v>-3.965594280607687</v>
+        <v>-5.273676029754637</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>38929</v>
+        <v>38960</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>85.05</v>
+        <v>85.97</v>
       </c>
       <c r="C225" s="3" t="n">
-        <v>-2.888787394382275</v>
+        <v>-3.965594280607687</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>38898</v>
+        <v>38929</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>85.3</v>
+        <v>85.05</v>
       </c>
       <c r="C226" s="3" t="n">
-        <v>-4.532736429770567</v>
+        <v>-2.888787394382275</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>38868</v>
+        <v>38898</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>85.22</v>
+        <v>85.3</v>
       </c>
       <c r="C227" s="3" t="n">
-        <v>-4.365391089664461</v>
+        <v>-4.532736429770567</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>38837</v>
+        <v>38868</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>84.72</v>
+        <v>85.22</v>
       </c>
       <c r="C228" s="3" t="n">
-        <v>-3.463992707383778</v>
+        <v>-4.365391089664461</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>38807</v>
+        <v>38837</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>86.11</v>
+        <v>84.72</v>
       </c>
       <c r="C229" s="3" t="n">
-        <v>1.989814047139626</v>
+        <v>-3.463992707383778</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>38776</v>
+        <v>38807</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>89.73</v>
+        <v>86.11</v>
       </c>
       <c r="C230" s="3" t="n">
-        <v>6.745182012847972</v>
+        <v>1.989814047139626</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>38748</v>
+        <v>38776</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>90.11</v>
+        <v>89.73</v>
       </c>
       <c r="C231" s="3" t="n">
-        <v>9.211004726699779</v>
+        <v>6.745182012847972</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>38717</v>
+        <v>38748</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>88.95999999999999</v>
+        <v>90.11</v>
       </c>
       <c r="C232" s="3" t="n">
-        <v>6.411483253588512</v>
+        <v>9.211004726699779</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>38686</v>
+        <v>38717</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>91.17</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="C233" s="3" t="n">
-        <v>12.76437847866421</v>
+        <v>6.411483253588512</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>38656</v>
+        <v>38686</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>91.56999999999999</v>
+        <v>91.17</v>
       </c>
       <c r="C234" s="3" t="n">
-        <v>11.9164018577365</v>
+        <v>12.76437847866421</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>38625</v>
+        <v>38656</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>90.06999999999999</v>
+        <v>91.56999999999999</v>
       </c>
       <c r="C235" s="3" t="n">
-        <v>6.077022729949344</v>
+        <v>11.9164018577365</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>38595</v>
+        <v>38625</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>89.52</v>
+        <v>90.06999999999999</v>
       </c>
       <c r="C236" s="3" t="n">
-        <v>2.472527472527464</v>
+        <v>6.077022729949344</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>38564</v>
+        <v>38595</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>87.58</v>
+        <v>89.52</v>
       </c>
       <c r="C237" s="3" t="n">
-        <v>-1.529120755565549</v>
+        <v>2.472527472527464</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>38533</v>
+        <v>38564</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>89.34999999999999</v>
+        <v>87.58</v>
       </c>
       <c r="C238" s="3" t="n">
-        <v>-0.678079146287236</v>
+        <v>-1.529120755565549</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>38503</v>
+        <v>38533</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>89.11</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="C239" s="3" t="n">
-        <v>0.3490990990991039</v>
+        <v>-0.678079146287236</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>38472</v>
+        <v>38503</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>87.76000000000001</v>
+        <v>89.11</v>
       </c>
       <c r="C240" s="3" t="n">
-        <v>-1.337830241708826</v>
+        <v>0.3490990990991039</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>38442</v>
+        <v>38472</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>84.43000000000001</v>
+        <v>87.76000000000001</v>
       </c>
       <c r="C241" s="3" t="n">
-        <v>-6.686560565870902</v>
+        <v>-1.337830241708826</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>38411</v>
+        <v>38442</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>84.06</v>
+        <v>84.43000000000001</v>
       </c>
       <c r="C242" s="3" t="n">
-        <v>-4.052048852870671</v>
+        <v>-6.686560565870902</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>38383</v>
+        <v>38411</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>82.51000000000001</v>
+        <v>84.06</v>
       </c>
       <c r="C243" s="3" t="n">
-        <v>-5.49765204443935</v>
+        <v>-4.052048852870671</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>38352</v>
+        <v>38383</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>83.59999999999999</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="C244" s="3" t="n">
-        <v>-4.128440366972486</v>
+        <v>-5.49765204443935</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>38321</v>
+        <v>38352</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>80.84999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C245" s="3" t="n">
-        <v>-6.983433041877596</v>
+        <v>-4.128440366972486</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>38291</v>
+        <v>38321</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>81.81999999999999</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="C246" s="3" t="n">
-        <v>-9.300521006540297</v>
+        <v>-6.983433041877596</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>38260</v>
+        <v>38291</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>84.91</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="C247" s="3" t="n">
-        <v>-8.433085301412714</v>
+        <v>-9.300521006540297</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>38230</v>
+        <v>38260</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>87.36</v>
+        <v>84.91</v>
       </c>
       <c r="C248" s="3" t="n">
-        <v>-5.912762520193859</v>
+        <v>-8.433085301412714</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>38199</v>
+        <v>38230</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>88.94</v>
+        <v>87.36</v>
       </c>
       <c r="C249" s="3" t="n">
-        <v>-9.337410805300706</v>
+        <v>-5.912762520193859</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>38168</v>
+        <v>38199</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>89.95999999999999</v>
+        <v>88.94</v>
       </c>
       <c r="C250" s="3" t="n">
-        <v>-7.152440912374869</v>
+        <v>-9.337410805300706</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>38138</v>
+        <v>38168</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>88.8</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="C251" s="3" t="n">
-        <v>-6.259896548084032</v>
+        <v>-7.152440912374869</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>38107</v>
+        <v>38138</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>88.95</v>
+        <v>88.8</v>
       </c>
       <c r="C252" s="3" t="n">
-        <v>-4.631714377613372</v>
+        <v>-6.259896548084032</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>38077</v>
+        <v>38107</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>90.48</v>
+        <v>88.95</v>
       </c>
       <c r="C253" s="3" t="n">
-        <v>-6.904002469389847</v>
+        <v>-4.631714377613372</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>38046</v>
+        <v>38077</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>87.61</v>
+        <v>90.48</v>
       </c>
       <c r="C254" s="3" t="n">
-        <v>-11.55865132243086</v>
+        <v>-6.904002469389847</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>38017</v>
+        <v>38046</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>87.31</v>
+        <v>87.61</v>
       </c>
       <c r="C255" s="3" t="n">
-        <v>-12.43606458730317</v>
+        <v>-11.55865132243086</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>37986</v>
+        <v>38017</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>87.2</v>
+        <v>87.31</v>
       </c>
       <c r="C256" s="3" t="n">
-        <v>-12.72144930437393</v>
+        <v>-12.43606458730317</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>37955</v>
+        <v>37986</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>86.92</v>
+        <v>87.2</v>
       </c>
       <c r="C257" s="3" t="n">
-        <v>-14.6588119783996</v>
+        <v>-12.72144930437393</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>37925</v>
+        <v>37955</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>90.20999999999999</v>
+        <v>86.92</v>
       </c>
       <c r="C258" s="3" t="n">
-        <v>-15.22413307020017</v>
+        <v>-14.6588119783996</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>37894</v>
+        <v>37925</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>92.73</v>
+        <v>90.20999999999999</v>
       </c>
       <c r="C259" s="3" t="n">
-        <v>-13.04388597149287</v>
+        <v>-15.22413307020017</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>37864</v>
+        <v>37894</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>92.84999999999999</v>
+        <v>92.73</v>
       </c>
       <c r="C260" s="3" t="n">
-        <v>-13.11874239730515</v>
+        <v>-13.04388597149287</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>37833</v>
+        <v>37864</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>98.09999999999999</v>
+        <v>92.84999999999999</v>
       </c>
       <c r="C261" s="3" t="n">
-        <v>-8.300616937745387</v>
+        <v>-13.11874239730515</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>37802</v>
+        <v>37833</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>96.89</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C262" s="3" t="n">
-        <v>-9.794246345777857</v>
+        <v>-8.300616937745387</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>37772</v>
+        <v>37802</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>94.73</v>
+        <v>96.89</v>
       </c>
       <c r="C263" s="3" t="n">
-        <v>-10.72471963057204</v>
+        <v>-9.794246345777857</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>37741</v>
+        <v>37772</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>93.27</v>
+        <v>94.73</v>
       </c>
       <c r="C264" s="3" t="n">
-        <v>-16.5817011000805</v>
+        <v>-10.72471963057204</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>37711</v>
+        <v>37741</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>97.19</v>
+        <v>93.27</v>
       </c>
       <c r="C265" s="3" t="n">
-        <v>-15.62635645455335</v>
+        <v>-16.5817011000805</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>37680</v>
+        <v>37711</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>99.06</v>
+        <v>97.19</v>
       </c>
       <c r="C266" s="3" t="n">
-        <v>-16.48963075366717</v>
+        <v>-15.62635645455335</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>37652</v>
+        <v>37680</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>99.70999999999999</v>
+        <v>99.06</v>
       </c>
       <c r="C267" s="3" t="n">
-        <v>-16.32259147364887</v>
+        <v>-16.48963075366717</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>37621</v>
+        <v>37652</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>99.91</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="C268" s="3" t="n">
-        <v>-16.90785096473719</v>
+        <v>-16.32259147364887</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>37590</v>
+        <v>37621</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>101.85</v>
+        <v>99.91</v>
       </c>
       <c r="C269" s="3" t="n">
-        <v>-12.76231263383298</v>
+        <v>-16.90785096473719</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>37560</v>
+        <v>37590</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>106.41</v>
+        <v>101.85</v>
       </c>
       <c r="C270" s="3" t="n">
-        <v>-8.369930250581248</v>
+        <v>-12.76231263383298</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>37529</v>
+        <v>37560</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>106.64</v>
+        <v>106.41</v>
       </c>
       <c r="C271" s="3" t="n">
-        <v>-7.156538394567303</v>
+        <v>-8.369930250581248</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>37499</v>
+        <v>37529</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>106.87</v>
+        <v>106.64</v>
       </c>
       <c r="C272" s="3" t="n">
-        <v>-5.82481494536482</v>
+        <v>-7.156538394567303</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>37468</v>
+        <v>37499</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>106.98</v>
+        <v>106.87</v>
       </c>
       <c r="C273" s="3" t="n">
-        <v>-5.67801093281608</v>
+        <v>-5.82481494536482</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>37437</v>
+        <v>37468</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>107.41</v>
+        <v>106.98</v>
       </c>
       <c r="C274" s="3" t="n">
-        <v>-8.337600273084156</v>
+        <v>-5.67801093281608</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>37407</v>
+        <v>37437</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>106.11</v>
+        <v>107.41</v>
       </c>
       <c r="C275" s="3" t="n">
-        <v>-11.15297663903543</v>
+        <v>-8.337600273084156</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>37376</v>
+        <v>37407</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>111.81</v>
+        <v>106.11</v>
       </c>
       <c r="C276" s="3" t="n">
-        <v>-6.097253716301331</v>
+        <v>-11.15297663903543</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>37346</v>
+        <v>37376</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>115.19</v>
+        <v>111.81</v>
       </c>
       <c r="C277" s="3" t="n">
-        <v>-0.5697022011221353</v>
+        <v>-6.097253716301331</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>37315</v>
+        <v>37346</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>118.62</v>
+        <v>115.19</v>
       </c>
       <c r="C278" s="3" t="n">
-        <v>1.065008094061515</v>
+        <v>-0.5697022011221353</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>37287</v>
+        <v>37315</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>119.16</v>
+        <v>118.62</v>
       </c>
       <c r="C279" s="3" t="n">
-        <v>6.383358628693858</v>
+        <v>1.065008094061515</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>37256</v>
+        <v>37287</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>120.24</v>
+        <v>119.16</v>
       </c>
       <c r="C280" s="3" t="n">
-        <v>8.794788273615639</v>
+        <v>6.383358628693858</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>37225</v>
+        <v>37256</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>116.75</v>
+        <v>120.24</v>
       </c>
       <c r="C281" s="3" t="n">
-        <v>6.562614092734576</v>
+        <v>8.794788273615639</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>37195</v>
+        <v>37225</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>116.13</v>
+        <v>116.75</v>
       </c>
       <c r="C282" s="3" t="n">
-        <v>0.7723012842763</v>
+        <v>6.562614092734576</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>37164</v>
+        <v>37195</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>114.86</v>
+        <v>116.13</v>
       </c>
       <c r="C283" s="3" t="n">
-        <v>-1.534504929275615</v>
+        <v>0.7723012842763</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>37134</v>
+        <v>37164</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>113.48</v>
+        <v>114.86</v>
       </c>
       <c r="C284" s="3" t="n">
-        <v>0.2030905077262668</v>
+        <v>-1.534504929275615</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>37103</v>
+        <v>37134</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>113.42</v>
+        <v>113.48</v>
       </c>
       <c r="C285" s="3" t="n">
-        <v>0.7282415630550654</v>
+        <v>0.2030905077262668</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>37072</v>
+        <v>37103</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>117.18</v>
+        <v>113.42</v>
       </c>
       <c r="C286" s="3" t="n">
-        <v>6.945331751391826</v>
+        <v>0.7282415630550654</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>37042</v>
+        <v>37072</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>119.43</v>
+        <v>117.18</v>
       </c>
       <c r="C287" s="3" t="n">
-        <v>11.78397603893673</v>
+        <v>6.945331751391826</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>37011</v>
+        <v>37042</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>119.07</v>
+        <v>119.43</v>
       </c>
       <c r="C288" s="3" t="n">
-        <v>9.499724112562081</v>
+        <v>11.78397603893673</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>36981</v>
+        <v>37011</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>115.85</v>
+        <v>119.07</v>
       </c>
       <c r="C289" s="3" t="n">
-        <v>5.184310877065545</v>
+        <v>9.499724112562081</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>36950</v>
+        <v>36981</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>117.37</v>
+        <v>115.85</v>
       </c>
       <c r="C290" s="3" t="n">
-        <v>11.31449165402125</v>
+        <v>5.184310877065545</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>36922</v>
+        <v>36950</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>112.01</v>
+        <v>117.37</v>
       </c>
       <c r="C291" s="3" t="n">
-        <v>5.749622356495476</v>
+        <v>11.31449165402125</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>36891</v>
+        <v>36922</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>110.52</v>
+        <v>112.01</v>
       </c>
       <c r="C292" s="3" t="n">
-        <v>5.126985636830583</v>
+        <v>5.749622356495476</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>36860</v>
+        <v>36891</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>109.56</v>
+        <v>110.52</v>
       </c>
       <c r="C293" s="3" t="n">
-        <v>7.548836752724064</v>
+        <v>5.126985636830583</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>36830</v>
+        <v>36860</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>115.24</v>
+        <v>109.56</v>
       </c>
       <c r="C294" s="3" t="n">
-        <v>12.99146975193646</v>
+        <v>7.548836752724064</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>36799</v>
+        <v>36830</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>116.65</v>
+        <v>115.24</v>
       </c>
       <c r="C295" s="3" t="n">
-        <v>17.75691500100949</v>
+        <v>12.99146975193646</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>36769</v>
+        <v>36799</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>113.25</v>
+        <v>116.65</v>
       </c>
       <c r="C296" s="3" t="n">
-        <v>14.92794804140449</v>
+        <v>17.75691500100949</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>36738</v>
+        <v>36769</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>112.6</v>
+        <v>113.25</v>
       </c>
       <c r="C297" s="3" t="n">
-        <v>12.65632816408204</v>
+        <v>14.92794804140449</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>36707</v>
+        <v>36738</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>109.57</v>
+        <v>112.6</v>
       </c>
       <c r="C298" s="3" t="n">
-        <v>9.844611528822057</v>
+        <v>12.65632816408204</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>36677</v>
+        <v>36707</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>106.84</v>
+        <v>109.57</v>
       </c>
       <c r="C299" s="3" t="n">
-        <v>3.879436071949449</v>
+        <v>9.844611528822057</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>36646</v>
+        <v>36677</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>108.74</v>
+        <v>106.84</v>
       </c>
       <c r="C300" s="3" t="n">
-        <v>6.077455857965064</v>
+        <v>3.879436071949449</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>36616</v>
+        <v>36646</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>110.14</v>
+        <v>108.74</v>
       </c>
       <c r="C301" s="3" t="n">
-        <v>9.049504950495058</v>
+        <v>6.077455857965064</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>36585</v>
+        <v>36616</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>105.44</v>
+        <v>110.14</v>
       </c>
       <c r="C302" s="3" t="n">
-        <v>5.334665334665334</v>
+        <v>9.049504950495058</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>36556</v>
+        <v>36585</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>105.92</v>
+        <v>105.44</v>
       </c>
       <c r="C303" s="3" t="n">
-        <v>7.336846372111872</v>
+        <v>5.334665334665334</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>36525</v>
+        <v>36556</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>105.13</v>
+        <v>105.92</v>
       </c>
       <c r="C304" s="3" t="n">
-        <v>9.419233971690266</v>
+        <v>7.336846372111872</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>36494</v>
+        <v>36525</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>101.87</v>
+        <v>105.13</v>
       </c>
       <c r="C305" s="3" t="n">
-        <v>8.176701709673996</v>
+        <v>9.419233971690266</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>36464</v>
+        <v>36494</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>101.99</v>
+        <v>101.87</v>
       </c>
       <c r="C306" s="3" t="n">
-        <v>6.018711018711009</v>
+        <v>8.176701709673996</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>36433</v>
+        <v>36464</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>99.06</v>
+        <v>101.99</v>
       </c>
       <c r="C307" s="3" t="n">
-        <v>5.68654646324549</v>
+        <v>6.018711018711009</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>36403</v>
+        <v>36433</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>98.54000000000001</v>
+        <v>99.06</v>
       </c>
       <c r="C308" s="3" t="n">
-        <v>2.464385983154838</v>
+        <v>5.68654646324549</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>36372</v>
+        <v>36403</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>99.95</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="C309" s="3" t="n">
-        <v>-0.2495009980039931</v>
+        <v>2.464385983154838</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>36341</v>
+        <v>36372</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>99.75</v>
+        <v>99.95</v>
       </c>
       <c r="C310" s="3" t="n">
-        <v>-1.432806324110669</v>
+        <v>-0.2495009980039931</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>36311</v>
+        <v>36341</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>102.85</v>
+        <v>99.75</v>
       </c>
       <c r="C311" s="3" t="n">
-        <v>1.660571315607395</v>
+        <v>-1.432806324110669</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>36280</v>
+        <v>36311</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>102.51</v>
+        <v>102.85</v>
       </c>
       <c r="C312" s="3" t="n">
-        <v>2.050771528123452</v>
+        <v>1.660571315607395</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>36250</v>
+        <v>36280</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>101</v>
+        <v>102.51</v>
       </c>
       <c r="C313" s="3" t="n">
-        <v>1.293751880453331</v>
+        <v>2.050771528123452</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>36219</v>
+        <v>36250</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>100.1</v>
+        <v>101</v>
       </c>
       <c r="C314" s="3" t="n">
-        <v>-1.379310344827589</v>
+        <v>1.293751880453331</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>36191</v>
+        <v>36219</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>98.68000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="C315" s="3" t="n">
-        <v>-1.142055700260458</v>
+        <v>-1.379310344827589</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>36160</v>
+        <v>36191</v>
       </c>
       <c r="B316" s="2" t="n">
-        <v>96.08</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="C316" s="3" t="n">
-        <v>-4.673082647088012</v>
+        <v>-1.142055700260458</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>36129</v>
+        <v>36160</v>
       </c>
       <c r="B317" s="2" t="n">
-        <v>94.17</v>
+        <v>96.08</v>
       </c>
       <c r="C317" s="3" t="n">
-        <v>-5.499247365780235</v>
+        <v>-4.673082647088012</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>36099</v>
+        <v>36129</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>96.2</v>
+        <v>94.17</v>
       </c>
       <c r="C318" s="3" t="n">
-        <v>-1.625933121996115</v>
+        <v>-5.499247365780235</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>36068</v>
+        <v>36099</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>93.73</v>
+        <v>96.2</v>
       </c>
       <c r="C319" s="3" t="n">
-        <v>-1.997072354663321</v>
+        <v>-1.625933121996115</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>36038</v>
+        <v>36068</v>
       </c>
       <c r="B320" s="2" t="n">
-        <v>96.17</v>
+        <v>93.73</v>
       </c>
       <c r="C320" s="3" t="n">
-        <v>-0.9679744619503605</v>
+        <v>-1.997072354663321</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>36007</v>
+        <v>36038</v>
       </c>
       <c r="B321" s="2" t="n">
-        <v>100.2</v>
+        <v>96.17</v>
       </c>
       <c r="C321" s="3" t="n">
-        <v>1.21212121212122</v>
+        <v>-0.9679744619503605</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>35976</v>
+        <v>36007</v>
       </c>
       <c r="B322" s="2" t="n">
-        <v>101.2</v>
+        <v>100.2</v>
       </c>
       <c r="C322" s="3" t="n">
-        <v>1.565636290646322</v>
+        <v>1.21212121212122</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>35946</v>
+        <v>35976</v>
       </c>
       <c r="B323" s="2" t="n">
-        <v>101.17</v>
+        <v>101.2</v>
       </c>
       <c r="C323" s="3" t="n">
-        <v>5.748928608759285</v>
+        <v>1.565636290646322</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>35915</v>
+        <v>35946</v>
       </c>
       <c r="B324" s="2" t="n">
-        <v>100.45</v>
+        <v>101.17</v>
       </c>
       <c r="C324" s="3" t="n">
-        <v>5.904059040590415</v>
+        <v>5.748928608759285</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>35885</v>
+        <v>35915</v>
       </c>
       <c r="B325" s="2" t="n">
-        <v>99.70999999999999</v>
+        <v>100.45</v>
       </c>
       <c r="C325" s="3" t="n">
-        <v>2.603416340810849</v>
+        <v>5.904059040590415</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>35854</v>
+        <v>35885</v>
       </c>
       <c r="B326" s="2" t="n">
-        <v>101.5</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="C326" s="3" t="n">
-        <v>7.157939189189189</v>
+        <v>2.603416340810849</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>35826</v>
+        <v>35854</v>
       </c>
       <c r="B327" s="2" t="n">
-        <v>99.81999999999999</v>
+        <v>101.5</v>
       </c>
       <c r="C327" s="3" t="n">
-        <v>5.195489514174301</v>
+        <v>7.157939189189189</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>35795</v>
+        <v>35826</v>
       </c>
       <c r="B328" s="2" t="n">
-        <v>100.79</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="C328" s="3" t="n">
-        <v>8.329750644883926</v>
+        <v>5.195489514174301</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>35764</v>
+        <v>35795</v>
       </c>
       <c r="B329" s="2" t="n">
-        <v>99.65000000000001</v>
+        <v>100.79</v>
       </c>
       <c r="C329" s="3" t="n">
-        <v>13.00748469040598</v>
+        <v>8.329750644883926</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>35734</v>
+        <v>35764</v>
       </c>
       <c r="B330" s="2" t="n">
-        <v>97.79000000000001</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="C330" s="3" t="n">
-        <v>11.22611464968153</v>
+        <v>13.00748469040598</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>35703</v>
+        <v>35734</v>
       </c>
       <c r="B331" s="2" t="n">
-        <v>95.64</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="C331" s="3" t="n">
-        <v>9.390369438407852</v>
+        <v>11.22611464968153</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>35673</v>
+        <v>35703</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>97.11</v>
+        <v>95.64</v>
       </c>
       <c r="C332" s="3" t="n">
-        <v>10.42756424835114</v>
+        <v>9.390369438407852</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>35642</v>
+        <v>35673</v>
       </c>
       <c r="B333" s="2" t="n">
-        <v>99</v>
+        <v>97.11</v>
       </c>
       <c r="C333" s="3" t="n">
-        <v>14.63640574339973</v>
+        <v>10.42756424835114</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>35611</v>
+        <v>35642</v>
       </c>
       <c r="B334" s="2" t="n">
-        <v>99.64</v>
+        <v>99</v>
       </c>
       <c r="C334" s="3" t="n">
-        <v>15.9953434225844</v>
+        <v>14.63640574339973</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>35581</v>
+        <v>35611</v>
       </c>
       <c r="B335" s="2" t="n">
-        <v>95.67</v>
+        <v>99.64</v>
       </c>
       <c r="C335" s="3" t="n">
-        <v>8.938738328398998</v>
+        <v>15.9953434225844</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>35550</v>
+        <v>35581</v>
       </c>
       <c r="B336" s="2" t="n">
-        <v>94.84999999999999</v>
+        <v>95.67</v>
       </c>
       <c r="C336" s="3" t="n">
-        <v>8.054226475279091</v>
+        <v>8.938738328398998</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>35520</v>
+        <v>35550</v>
       </c>
       <c r="B337" s="2" t="n">
-        <v>97.18000000000001</v>
+        <v>94.84999999999999</v>
       </c>
       <c r="C337" s="3" t="n">
-        <v>10.40672574414907</v>
+        <v>8.054226475279091</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>35489</v>
+        <v>35520</v>
       </c>
       <c r="B338" s="2" t="n">
-        <v>94.72</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="C338" s="3" t="n">
-        <v>9.47757743874249</v>
+        <v>10.40672574414907</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>35461</v>
+        <v>35489</v>
       </c>
       <c r="B339" s="2" t="n">
-        <v>94.89</v>
+        <v>94.72</v>
       </c>
       <c r="C339" s="3" t="n">
-        <v>9.966392397728585</v>
+        <v>9.47757743874249</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>35430</v>
+        <v>35461</v>
       </c>
       <c r="B340" s="2" t="n">
-        <v>93.04000000000001</v>
+        <v>94.89</v>
       </c>
       <c r="C340" s="3" t="n">
-        <v>6.477454795147652</v>
+        <v>9.966392397728585</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>35399</v>
+        <v>35430</v>
       </c>
       <c r="B341" s="2" t="n">
-        <v>88.18000000000001</v>
+        <v>93.04000000000001</v>
       </c>
       <c r="C341" s="3" t="n">
-        <v>4.034922133081653</v>
+        <v>6.477454795147652</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>35369</v>
+        <v>35399</v>
       </c>
       <c r="B342" s="2" t="n">
-        <v>87.92</v>
+        <v>88.18000000000001</v>
       </c>
       <c r="C342" s="3" t="n">
-        <v>3.119868637110002</v>
+        <v>4.034922133081653</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>35338</v>
+        <v>35369</v>
       </c>
       <c r="B343" s="2" t="n">
-        <v>87.43000000000001</v>
+        <v>87.92</v>
       </c>
       <c r="C343" s="3" t="n">
-        <v>4.506335166148712</v>
+        <v>3.119868637110002</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>35308</v>
+        <v>35338</v>
       </c>
       <c r="B344" s="2" t="n">
-        <v>87.94</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="C344" s="3" t="n">
-        <v>4.330288290425899</v>
+        <v>4.506335166148712</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>35277</v>
+        <v>35308</v>
       </c>
       <c r="B345" s="2" t="n">
-        <v>86.36</v>
+        <v>87.94</v>
       </c>
       <c r="C345" s="3" t="n">
-        <v>0.9232207549374927</v>
+        <v>4.330288290425899</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>35246</v>
+        <v>35277</v>
       </c>
       <c r="B346" s="2" t="n">
-        <v>85.90000000000001</v>
+        <v>86.36</v>
       </c>
       <c r="C346" s="3" t="n">
-        <v>5.308324138776532</v>
+        <v>0.9232207549374927</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>35216</v>
+        <v>35246</v>
       </c>
       <c r="B347" s="2" t="n">
-        <v>87.81999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C347" s="3" t="n">
-        <v>7.648933562147575</v>
+        <v>5.308324138776532</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>35185</v>
+        <v>35216</v>
       </c>
       <c r="B348" s="2" t="n">
-        <v>87.78</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="C348" s="3" t="n">
-        <v>6.309797747365886</v>
+        <v>7.648933562147575</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>35155</v>
+        <v>35185</v>
       </c>
       <c r="B349" s="2" t="n">
-        <v>88.02</v>
+        <v>87.78</v>
       </c>
       <c r="C349" s="3" t="n">
-        <v>7.603911980440103</v>
+        <v>6.309797747365886</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>35124</v>
+        <v>35155</v>
       </c>
       <c r="B350" s="2" t="n">
-        <v>86.52</v>
+        <v>88.02</v>
       </c>
       <c r="C350" s="3" t="n">
-        <v>5.641025641025621</v>
+        <v>7.603911980440103</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>35095</v>
+        <v>35124</v>
       </c>
       <c r="B351" s="2" t="n">
-        <v>86.29000000000001</v>
+        <v>86.52</v>
       </c>
       <c r="C351" s="3" t="n">
-        <v>0.4189456534388514</v>
+        <v>5.641025641025621</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>35064</v>
+        <v>35095</v>
       </c>
       <c r="B352" s="2" t="n">
-        <v>87.38</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="C352" s="3" t="n">
-        <v>-0.6932605977952089</v>
+        <v>0.4189456534388514</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>35033</v>
+        <v>35064</v>
       </c>
       <c r="B353" s="2" t="n">
-        <v>84.76000000000001</v>
+        <v>87.38</v>
       </c>
       <c r="C353" s="3" t="n">
-        <v>-4.474247717795555</v>
+        <v>-0.6932605977952089</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>35003</v>
+        <v>35033</v>
       </c>
       <c r="B354" s="2" t="n">
-        <v>85.26000000000001</v>
+        <v>84.76000000000001</v>
       </c>
       <c r="C354" s="3" t="n">
-        <v>-4.341972399865357</v>
+        <v>-4.474247717795555</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>34972</v>
+        <v>35003</v>
       </c>
       <c r="B355" s="2" t="n">
-        <v>83.66</v>
+        <v>85.26000000000001</v>
       </c>
       <c r="C355" s="3" t="n">
-        <v>-2.369004551289533</v>
+        <v>-4.341972399865357</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>34942</v>
+        <v>34972</v>
       </c>
       <c r="B356" s="2" t="n">
-        <v>84.29000000000001</v>
+        <v>83.66</v>
       </c>
       <c r="C356" s="3" t="n">
-        <v>-4.085116067364581</v>
+        <v>-2.369004551289533</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>34911</v>
+        <v>34942</v>
       </c>
       <c r="B357" s="2" t="n">
-        <v>85.56999999999999</v>
+        <v>84.29000000000001</v>
       </c>
       <c r="C357" s="3" t="n">
-        <v>-4.572320731571322</v>
+        <v>-4.085116067364581</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>34880</v>
+        <v>34911</v>
       </c>
       <c r="B358" s="2" t="n">
-        <v>81.56999999999999</v>
+        <v>85.56999999999999</v>
       </c>
       <c r="C358" s="3" t="n">
-        <v>-9.235562479136538</v>
+        <v>-4.572320731571322</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>34850</v>
+        <v>34880</v>
       </c>
       <c r="B359" s="2" t="n">
-        <v>81.58</v>
+        <v>81.56999999999999</v>
       </c>
       <c r="C359" s="3" t="n">
-        <v>-8.971211783084144</v>
+        <v>-9.235562479136538</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>34819</v>
+        <v>34850</v>
       </c>
       <c r="B360" s="2" t="n">
-        <v>82.56999999999999</v>
+        <v>81.58</v>
       </c>
       <c r="C360" s="3" t="n">
-        <v>-10.75443147427584</v>
+        <v>-8.971211783084144</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>34789</v>
+        <v>34819</v>
       </c>
       <c r="B361" s="2" t="n">
-        <v>81.8</v>
+        <v>82.56999999999999</v>
       </c>
       <c r="C361" s="3" t="n">
-        <v>-11.202778983934</v>
+        <v>-10.75443147427584</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>34758</v>
+        <v>34789</v>
       </c>
       <c r="B362" s="2" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="C362" s="3" t="n">
-        <v>-11.99226305609285</v>
+        <v>-11.202778983934</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>34730</v>
+        <v>34758</v>
       </c>
       <c r="B363" s="2" t="n">
-        <v>85.93000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C363" s="3" t="n">
-        <v>-9.116869381279734</v>
+        <v>-11.99226305609285</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>34699</v>
+        <v>34730</v>
       </c>
       <c r="B364" s="2" t="n">
-        <v>87.98999999999999</v>
+        <v>85.93000000000001</v>
       </c>
       <c r="C364" s="3" t="n">
-        <v>-7.950622450047085</v>
+        <v>-9.116869381279734</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>34668</v>
+        <v>34699</v>
       </c>
       <c r="B365" s="2" t="n">
-        <v>88.73</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="C365" s="3" t="n">
-        <v>-8.374638579099546</v>
+        <v>-7.950622450047085</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>34638</v>
+        <v>34668</v>
       </c>
       <c r="B366" s="2" t="n">
-        <v>89.13</v>
+        <v>88.73</v>
       </c>
       <c r="C366" s="3" t="n">
-        <v>-7.358902400997813</v>
+        <v>-8.374638579099546</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>34607</v>
+        <v>34638</v>
       </c>
       <c r="B367" s="2" t="n">
-        <v>85.69</v>
+        <v>89.13</v>
       </c>
       <c r="C367" s="3" t="n">
-        <v>-9.875893984013462</v>
+        <v>-7.358902400997813</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>34577</v>
+        <v>34607</v>
       </c>
       <c r="B368" s="2" t="n">
-        <v>87.88</v>
+        <v>85.69</v>
       </c>
       <c r="C368" s="3" t="n">
-        <v>-5.32212885154062</v>
+        <v>-9.875893984013462</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>34546</v>
+        <v>34577</v>
       </c>
       <c r="B369" s="2" t="n">
-        <v>89.67</v>
+        <v>87.88</v>
       </c>
       <c r="C369" s="3" t="n">
-        <v>-4.555614688664189</v>
+        <v>-5.32212885154062</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>34515</v>
+        <v>34546</v>
       </c>
       <c r="B370" s="2" t="n">
-        <v>89.87</v>
+        <v>89.67</v>
       </c>
       <c r="C370" s="3" t="n">
-        <v>-5.767012687427908</v>
+        <v>-4.555614688664189</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>34485</v>
+        <v>34515</v>
       </c>
       <c r="B371" s="2" t="n">
-        <v>89.62</v>
+        <v>89.87</v>
       </c>
       <c r="C371" s="3" t="n">
-        <v>-4.28281533696464</v>
+        <v>-5.767012687427908</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>34454</v>
+        <v>34485</v>
       </c>
       <c r="B372" s="2" t="n">
-        <v>92.52</v>
+        <v>89.62</v>
       </c>
       <c r="C372" s="3" t="n">
-        <v>3.861697350695992</v>
+        <v>-4.28281533696464</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>34424</v>
+        <v>34454</v>
       </c>
       <c r="B373" s="2" t="n">
-        <v>92.12</v>
+        <v>92.52</v>
       </c>
       <c r="C373" s="3" t="n">
-        <v>2.938875852050526</v>
+        <v>3.861697350695992</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>34393</v>
+        <v>34424</v>
       </c>
       <c r="B374" s="2" t="n">
-        <v>93.06</v>
+        <v>92.12</v>
       </c>
       <c r="C374" s="3" t="n">
-        <v>1.295308588222488</v>
+        <v>2.938875852050526</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>34365</v>
+        <v>34393</v>
       </c>
       <c r="B375" s="2" t="n">
-        <v>94.55</v>
+        <v>93.06</v>
       </c>
       <c r="C375" s="3" t="n">
-        <v>0.5316321105794719</v>
+        <v>1.295308588222488</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>34334</v>
+        <v>34365</v>
       </c>
       <c r="B376" s="2" t="n">
-        <v>95.59</v>
+        <v>94.55</v>
       </c>
       <c r="C376" s="3" t="n">
-        <v>3.385247674670144</v>
+        <v>0.5316321105794719</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>34303</v>
+        <v>34334</v>
       </c>
       <c r="B377" s="2" t="n">
-        <v>96.84</v>
+        <v>95.59</v>
       </c>
       <c r="C377" s="3" t="n">
-        <v>4.850584668687752</v>
+        <v>3.385247674670144</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>34273</v>
+        <v>34303</v>
       </c>
       <c r="B378" s="2" t="n">
-        <v>96.20999999999999</v>
+        <v>96.84</v>
       </c>
       <c r="C378" s="3" t="n">
-        <v>5.911492734478196</v>
+        <v>4.850584668687752</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>34242</v>
+        <v>34273</v>
       </c>
       <c r="B379" s="2" t="n">
-        <v>95.08</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="C379" s="3" t="n">
-        <v>8.501654684468797</v>
+        <v>5.911492734478196</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>34212</v>
+        <v>34242</v>
       </c>
       <c r="B380" s="2" t="n">
-        <v>92.81999999999999</v>
+        <v>95.08</v>
       </c>
       <c r="C380" s="3" t="n">
-        <v>14.45129469790383</v>
+        <v>8.501654684468797</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>34181</v>
+        <v>34212</v>
       </c>
       <c r="B381" s="2" t="n">
-        <v>93.95</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="C381" s="3" t="n">
-        <v>19.10496957403651</v>
+        <v>14.45129469790383</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>34150</v>
+        <v>34181</v>
       </c>
       <c r="B382" s="2" t="n">
-        <v>95.37</v>
+        <v>93.95</v>
       </c>
       <c r="C382" s="3" t="n">
-        <v>16.43267000366258</v>
+        <v>19.10496957403651</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>34120</v>
+        <v>34150</v>
       </c>
       <c r="B383" s="2" t="n">
-        <v>93.63</v>
+        <v>95.37</v>
       </c>
       <c r="C383" s="3" t="n">
-        <v>11.83707596751076</v>
+        <v>16.43267000366258</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>34089</v>
+        <v>34120</v>
       </c>
       <c r="B384" s="2" t="n">
-        <v>89.08</v>
+        <v>93.63</v>
       </c>
       <c r="C384" s="3" t="n">
-        <v>2.132538408621865</v>
+        <v>11.83707596751076</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>34059</v>
+        <v>34089</v>
       </c>
       <c r="B385" s="2" t="n">
-        <v>89.48999999999999</v>
+        <v>89.08</v>
       </c>
       <c r="C385" s="3" t="n">
-        <v>-0.1450569069404217</v>
+        <v>2.132538408621865</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>34028</v>
+        <v>34059</v>
       </c>
       <c r="B386" s="2" t="n">
-        <v>91.87</v>
+        <v>89.48999999999999</v>
       </c>
       <c r="C386" s="3" t="n">
-        <v>2.476296709425552</v>
+        <v>-0.1450569069404217</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>34000</v>
+        <v>34028</v>
       </c>
       <c r="B387" s="2" t="n">
-        <v>94.05</v>
+        <v>91.87</v>
       </c>
       <c r="C387" s="3" t="n">
-        <v>5.686032138442521</v>
+        <v>2.476296709425552</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>33969</v>
+        <v>34000</v>
       </c>
       <c r="B388" s="2" t="n">
-        <v>92.45999999999999</v>
+        <v>94.05</v>
       </c>
       <c r="C388" s="3" t="n">
-        <v>5.68064921705338</v>
+        <v>5.686032138442521</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>33938</v>
+        <v>33969</v>
       </c>
       <c r="B389" s="2" t="n">
-        <v>92.36</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="C389" s="3" t="n">
-        <v>10.58429118773947</v>
+        <v>5.68064921705338</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>33908</v>
+        <v>33938</v>
       </c>
       <c r="B390" s="2" t="n">
-        <v>90.84</v>
+        <v>92.36</v>
       </c>
       <c r="C390" s="3" t="n">
-        <v>3.00487583626261</v>
+        <v>10.58429118773947</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>33877</v>
+        <v>33908</v>
       </c>
       <c r="B391" s="2" t="n">
-        <v>87.63</v>
+        <v>90.84</v>
       </c>
       <c r="C391" s="3" t="n">
-        <v>-2.557544757033259</v>
+        <v>3.00487583626261</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>33847</v>
+        <v>33877</v>
       </c>
       <c r="B392" s="2" t="n">
-        <v>81.09999999999999</v>
+        <v>87.63</v>
       </c>
       <c r="C392" s="3" t="n">
-        <v>-9.788654060066747</v>
+        <v>-2.557544757033259</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>33816</v>
+        <v>33847</v>
       </c>
       <c r="B393" s="2" t="n">
-        <v>78.88</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="C393" s="3" t="n">
-        <v>-15.6273398224409</v>
+        <v>-9.788654060066747</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>33785</v>
+        <v>33816</v>
       </c>
       <c r="B394" s="2" t="n">
-        <v>81.91</v>
+        <v>78.88</v>
       </c>
       <c r="C394" s="3" t="n">
-        <v>-12.38635148144186</v>
+        <v>-15.6273398224409</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>33755</v>
+        <v>33785</v>
       </c>
       <c r="B395" s="2" t="n">
-        <v>83.72</v>
+        <v>81.91</v>
       </c>
       <c r="C395" s="3" t="n">
-        <v>-12.8461378305226</v>
+        <v>-12.38635148144186</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>33724</v>
+        <v>33755</v>
       </c>
       <c r="B396" s="2" t="n">
-        <v>87.22</v>
+        <v>83.72</v>
       </c>
       <c r="C396" s="3" t="n">
-        <v>-6.345968001718028</v>
+        <v>-12.8461378305226</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>33694</v>
+        <v>33724</v>
       </c>
       <c r="B397" s="2" t="n">
-        <v>89.62</v>
+        <v>87.22</v>
       </c>
       <c r="C397" s="3" t="n">
-        <v>-2.09744374044134</v>
+        <v>-6.345968001718028</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>33663</v>
+        <v>33694</v>
       </c>
       <c r="B398" s="2" t="n">
-        <v>89.65000000000001</v>
+        <v>89.62</v>
       </c>
       <c r="C398" s="3" t="n">
-        <v>-2.575527059334914</v>
+        <v>-2.09744374044134</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>33634</v>
+        <v>33663</v>
       </c>
       <c r="B399" s="2" t="n">
-        <v>88.98999999999999</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="C399" s="3" t="n">
-        <v>5.839676498572777</v>
+        <v>-2.575527059334914</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>33603</v>
+        <v>33634</v>
       </c>
       <c r="B400" s="2" t="n">
-        <v>87.48999999999999</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="C400" s="3" t="n">
-        <v>6.695121951219507</v>
+        <v>5.839676498572777</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>33572</v>
+        <v>33603</v>
       </c>
       <c r="B401" s="2" t="n">
-        <v>83.52</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="C401" s="3" t="n">
-        <v>0.5417118093174356</v>
+        <v>6.695121951219507</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>33542</v>
+        <v>33572</v>
       </c>
       <c r="B402" s="2" t="n">
-        <v>88.19</v>
+        <v>83.52</v>
       </c>
       <c r="C402" s="3" t="n">
-        <v>6.342698661521751</v>
+        <v>0.5417118093174356</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>33511</v>
+        <v>33542</v>
       </c>
       <c r="B403" s="2" t="n">
-        <v>89.93000000000001</v>
+        <v>88.19</v>
       </c>
       <c r="C403" s="3" t="n">
-        <v>7.985110470701251</v>
+        <v>6.342698661521751</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>33481</v>
+        <v>33511</v>
       </c>
       <c r="B404" s="2" t="n">
-        <v>89.90000000000001</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="C404" s="3" t="n">
-        <v>4.534883720930249</v>
+        <v>7.985110470701251</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>33450</v>
+        <v>33481</v>
       </c>
       <c r="B405" s="2" t="n">
-        <v>93.48999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C405" s="3" t="n">
-        <v>8.006007393715331</v>
+        <v>4.534883720930249</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>33419</v>
+        <v>33450</v>
       </c>
       <c r="B406" s="2" t="n">
         <v>93.48999999999999</v>
       </c>
       <c r="C406" s="3" t="n">
-        <v>7.250200757141201</v>
+        <v>8.006007393715331</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>33389</v>
+        <v>33419</v>
       </c>
       <c r="B407" s="2" t="n">
-        <v>96.06</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="C407" s="3" t="n">
-        <v>5.386725178277563</v>
+        <v>7.250200757141201</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>33358</v>
+        <v>33389</v>
       </c>
       <c r="B408" s="2" t="n">
-        <v>93.13</v>
+        <v>96.06</v>
       </c>
       <c r="C408" s="3" t="n">
-        <v>0.1613250161324853</v>
+        <v>5.386725178277563</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>33328</v>
+        <v>33358</v>
       </c>
       <c r="B409" s="2" t="n">
-        <v>91.54000000000001</v>
+        <v>93.13</v>
       </c>
       <c r="C409" s="3" t="n">
-        <v>-1.643923928226054</v>
+        <v>0.1613250161324853</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>33297</v>
+        <v>33328</v>
       </c>
       <c r="B410" s="2" t="n">
-        <v>92.02</v>
+        <v>91.54000000000001</v>
       </c>
       <c r="C410" s="3" t="n">
-        <v>-1.782474116768062</v>
+        <v>-1.643923928226054</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>33269</v>
+        <v>33297</v>
       </c>
       <c r="B411" s="2" t="n">
-        <v>84.08</v>
+        <v>92.02</v>
       </c>
       <c r="C411" s="3" t="n">
-        <v>-9.872440776074608</v>
+        <v>-1.782474116768062</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>33238</v>
+        <v>33269</v>
       </c>
       <c r="B412" s="2" t="n">
-        <v>82</v>
+        <v>84.08</v>
       </c>
       <c r="C412" s="3" t="n">
-        <v>-11.26501460880857</v>
+        <v>-9.872440776074608</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>33207</v>
+        <v>33238</v>
       </c>
       <c r="B413" s="2" t="n">
-        <v>83.06999999999999</v>
+        <v>82</v>
       </c>
       <c r="C413" s="3" t="n">
-        <v>-10.87866108786612</v>
+        <v>-11.26501460880857</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>33177</v>
+        <v>33207</v>
       </c>
       <c r="B414" s="2" t="n">
-        <v>82.93000000000001</v>
+        <v>83.06999999999999</v>
       </c>
       <c r="C414" s="3" t="n">
-        <v>-13.85686091201828</v>
+        <v>-10.87866108786612</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>33146</v>
+        <v>33177</v>
       </c>
       <c r="B415" s="2" t="n">
-        <v>83.28</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="C415" s="3" t="n">
-        <v>-15.08106454573264</v>
+        <v>-13.85686091201828</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>33116</v>
+        <v>33146</v>
       </c>
       <c r="B416" s="2" t="n">
-        <v>86</v>
+        <v>83.28</v>
       </c>
       <c r="C416" s="3" t="n">
-        <v>-12.66375545851528</v>
+        <v>-15.08106454573264</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>33085</v>
+        <v>33116</v>
       </c>
       <c r="B417" s="2" t="n">
-        <v>86.56</v>
+        <v>86</v>
       </c>
       <c r="C417" s="3" t="n">
-        <v>-15.36957371920219</v>
+        <v>-12.66375545851528</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>33054</v>
+        <v>33085</v>
       </c>
       <c r="B418" s="2" t="n">
-        <v>87.17</v>
+        <v>86.56</v>
       </c>
       <c r="C418" s="3" t="n">
-        <v>-10.49389054317692</v>
+        <v>-15.36957371920219</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>33024</v>
+        <v>33054</v>
       </c>
       <c r="B419" s="2" t="n">
-        <v>91.15000000000001</v>
+        <v>87.17</v>
       </c>
       <c r="C419" s="3" t="n">
-        <v>-10.65477357380905</v>
+        <v>-10.49389054317692</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>32993</v>
+        <v>33024</v>
       </c>
       <c r="B420" s="2" t="n">
-        <v>92.98</v>
+        <v>91.15000000000001</v>
       </c>
       <c r="C420" s="3" t="n">
-        <v>-9.710623422023691</v>
+        <v>-10.65477357380905</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>32963</v>
+        <v>32993</v>
       </c>
       <c r="B421" s="2" t="n">
-        <v>93.06999999999999</v>
+        <v>92.98</v>
       </c>
       <c r="C421" s="3" t="n">
-        <v>-4.748746290041961</v>
+        <v>-9.710623422023691</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>32932</v>
+        <v>32963</v>
       </c>
       <c r="B422" s="2" t="n">
-        <v>93.69</v>
+        <v>93.06999999999999</v>
       </c>
       <c r="C422" s="3" t="n">
-        <v>-4.534338699816587</v>
+        <v>-4.748746290041961</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>32904</v>
+        <v>32932</v>
       </c>
       <c r="B423" s="2" t="n">
-        <v>93.29000000000001</v>
+        <v>93.69</v>
       </c>
       <c r="C423" s="3" t="n">
-        <v>-1.696522655426769</v>
+        <v>-4.534338699816587</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>32873</v>
+        <v>32904</v>
       </c>
       <c r="B424" s="2" t="n">
-        <v>92.41</v>
+        <v>93.29000000000001</v>
       </c>
       <c r="C424" s="3" t="n">
-        <v>-4.505528572904827</v>
+        <v>-1.696522655426769</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>32842</v>
+        <v>32873</v>
       </c>
       <c r="B425" s="2" t="n">
-        <v>93.20999999999999</v>
+        <v>92.41</v>
       </c>
       <c r="C425" s="3" t="n">
-        <v>0.7675675675675508</v>
+        <v>-4.505528572904827</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>32812</v>
+        <v>32842</v>
       </c>
       <c r="B426" s="2" t="n">
-        <v>96.27</v>
+        <v>93.20999999999999</v>
       </c>
       <c r="C426" s="3" t="n">
-        <v>6.340439633270734</v>
+        <v>0.7675675675675508</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>32781</v>
+        <v>32812</v>
       </c>
       <c r="B427" s="2" t="n">
-        <v>98.06999999999999</v>
+        <v>96.27</v>
       </c>
       <c r="C427" s="3" t="n">
-        <v>4.596843003412965</v>
+        <v>6.340439633270734</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>32751</v>
+        <v>32781</v>
       </c>
       <c r="B428" s="2" t="n">
-        <v>98.47</v>
+        <v>98.06999999999999</v>
       </c>
       <c r="C428" s="3" t="n">
-        <v>0.7984440577336382</v>
+        <v>4.596843003412965</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>32720</v>
+        <v>32751</v>
       </c>
       <c r="B429" s="2" t="n">
-        <v>102.28</v>
+        <v>98.47</v>
       </c>
       <c r="C429" s="3" t="n">
-        <v>3.92196707986181</v>
+        <v>0.7984440577336382</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>32689</v>
+        <v>32720</v>
       </c>
       <c r="B430" s="2" t="n">
-        <v>97.39</v>
+        <v>102.28</v>
       </c>
       <c r="C430" s="3" t="n">
-        <v>-0.1435455757202941</v>
+        <v>3.92196707986181</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>32659</v>
+        <v>32689</v>
       </c>
       <c r="B431" s="2" t="n">
-        <v>102.02</v>
+        <v>97.39</v>
       </c>
       <c r="C431" s="3" t="n">
-        <v>6.927994969080808</v>
+        <v>-0.1435455757202941</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>32628</v>
+        <v>32659</v>
       </c>
       <c r="B432" s="2" t="n">
-        <v>102.98</v>
+        <v>102.02</v>
       </c>
       <c r="C432" s="3" t="n">
-        <v>13.05302448128225</v>
+        <v>6.927994969080808</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>32598</v>
+        <v>32628</v>
       </c>
       <c r="B433" s="2" t="n">
-        <v>97.70999999999999</v>
+        <v>102.98</v>
       </c>
       <c r="C433" s="3" t="n">
-        <v>9.589502018842522</v>
+        <v>13.05302448128225</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>32567</v>
+        <v>32598</v>
       </c>
       <c r="B434" s="2" t="n">
-        <v>98.14</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="C434" s="3" t="n">
-        <v>11.14382785956964</v>
+        <v>9.589502018842522</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>32539</v>
+        <v>32567</v>
       </c>
       <c r="B435" s="2" t="n">
-        <v>94.90000000000001</v>
+        <v>98.14</v>
       </c>
       <c r="C435" s="3" t="n">
-        <v>4.827129128465701</v>
+        <v>11.14382785956964</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>32508</v>
+        <v>32539</v>
       </c>
       <c r="B436" s="2" t="n">
-        <v>96.77</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C436" s="3" t="n">
-        <v>7.11755589993357</v>
+        <v>4.827129128465701</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>32477</v>
+        <v>32508</v>
       </c>
       <c r="B437" s="2" t="n">
-        <v>92.5</v>
+        <v>96.77</v>
       </c>
       <c r="C437" s="3" t="n">
-        <v>8.288457035822994</v>
+        <v>7.11755589993357</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>32447</v>
+        <v>32477</v>
       </c>
       <c r="B438" s="2" t="n">
-        <v>90.53</v>
+        <v>92.5</v>
       </c>
       <c r="C438" s="3" t="n">
-        <v>1.547952888390358</v>
+        <v>8.288457035822994</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>32416</v>
+        <v>32447</v>
       </c>
       <c r="B439" s="2" t="n">
-        <v>93.76000000000001</v>
+        <v>90.53</v>
       </c>
       <c r="C439" s="3" t="n">
-        <v>0.1174586225306973</v>
+        <v>1.547952888390358</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>32386</v>
+        <v>32416</v>
       </c>
       <c r="B440" s="2" t="n">
-        <v>97.69</v>
+        <v>93.76000000000001</v>
       </c>
       <c r="C440" s="3" t="n">
-        <v>-0.892766561834224</v>
+        <v>0.1174586225306973</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>32355</v>
+        <v>32386</v>
       </c>
       <c r="B441" s="2" t="n">
-        <v>98.42</v>
+        <v>97.69</v>
       </c>
       <c r="C441" s="3" t="n">
-        <v>1.13029182079738</v>
+        <v>-0.892766561834224</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>32324</v>
+        <v>32355</v>
       </c>
       <c r="B442" s="2" t="n">
-        <v>97.53</v>
+        <v>98.42</v>
       </c>
       <c r="C442" s="3" t="n">
-        <v>-2.264755987573908</v>
+        <v>1.13029182079738</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>32294</v>
+        <v>32324</v>
       </c>
       <c r="B443" s="2" t="n">
-        <v>95.41</v>
+        <v>97.53</v>
       </c>
       <c r="C443" s="3" t="n">
-        <v>-2.771833282380509</v>
+        <v>-2.264755987573908</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>32263</v>
+        <v>32294</v>
       </c>
       <c r="B444" s="2" t="n">
-        <v>91.09</v>
+        <v>95.41</v>
       </c>
       <c r="C444" s="3" t="n">
-        <v>-6.832361665132447</v>
+        <v>-2.771833282380509</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>32233</v>
+        <v>32263</v>
       </c>
       <c r="B445" s="2" t="n">
-        <v>89.16</v>
+        <v>91.09</v>
       </c>
       <c r="C445" s="3" t="n">
-        <v>-7.066916823014391</v>
+        <v>-6.832361665132447</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>32202</v>
+        <v>32233</v>
       </c>
       <c r="B446" s="2" t="n">
-        <v>88.3</v>
+        <v>89.16</v>
       </c>
       <c r="C446" s="3" t="n">
-        <v>-9.072186180619923</v>
+        <v>-7.066916823014391</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>32173</v>
+        <v>32202</v>
       </c>
       <c r="B447" s="2" t="n">
-        <v>90.53</v>
+        <v>88.3</v>
       </c>
       <c r="C447" s="3" t="n">
-        <v>-8.795083618778964</v>
+        <v>-9.072186180619923</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>32142</v>
+        <v>32173</v>
       </c>
       <c r="B448" s="2" t="n">
-        <v>90.34</v>
+        <v>90.53</v>
       </c>
       <c r="C448" s="3" t="n">
-        <v>-9.533346685359501</v>
+        <v>-8.795083618778964</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>32111</v>
+        <v>32142</v>
       </c>
       <c r="B449" s="2" t="n">
-        <v>85.42</v>
+        <v>90.34</v>
       </c>
       <c r="C449" s="3" t="n">
-        <v>-17.5323421509944</v>
+        <v>-9.533346685359501</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>32081</v>
+        <v>32111</v>
       </c>
       <c r="B450" s="2" t="n">
-        <v>89.15000000000001</v>
+        <v>85.42</v>
       </c>
       <c r="C450" s="3" t="n">
-        <v>-15.83270392749244</v>
+        <v>-17.5323421509944</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>32050</v>
+        <v>32081</v>
       </c>
       <c r="B451" s="2" t="n">
-        <v>93.65000000000001</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="C451" s="3" t="n">
-        <v>-14.29486592843414</v>
+        <v>-15.83270392749244</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>32020</v>
+        <v>32050</v>
       </c>
       <c r="B452" s="2" t="n">
-        <v>98.56999999999999</v>
+        <v>93.65000000000001</v>
       </c>
       <c r="C452" s="3" t="n">
-        <v>-7.65411279745175</v>
+        <v>-14.29486592843414</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>31989</v>
+        <v>32020</v>
       </c>
       <c r="B453" s="2" t="n">
-        <v>97.31999999999999</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="C453" s="3" t="n">
-        <v>-8.55961664944096</v>
+        <v>-7.65411279745175</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>31958</v>
+        <v>31989</v>
       </c>
       <c r="B454" s="2" t="n">
-        <v>99.79000000000001</v>
+        <v>97.31999999999999</v>
       </c>
       <c r="C454" s="3" t="n">
-        <v>-7.636060718252502</v>
+        <v>-8.55961664944096</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>31928</v>
+        <v>31958</v>
       </c>
       <c r="B455" s="2" t="n">
-        <v>98.13</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="C455" s="3" t="n">
-        <v>-12.07777080906729</v>
+        <v>-7.636060718252502</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>31897</v>
+        <v>31928</v>
       </c>
       <c r="B456" s="2" t="n">
-        <v>97.77</v>
+        <v>98.13</v>
       </c>
       <c r="C456" s="3" t="n">
-        <v>-16.79857033443963</v>
+        <v>-12.07777080906729</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>31867</v>
+        <v>31897</v>
       </c>
       <c r="B457" s="2" t="n">
-        <v>95.94</v>
+        <v>97.77</v>
       </c>
       <c r="C457" s="3" t="n">
-        <v>-14.16301333094748</v>
+        <v>-16.79857033443963</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>31836</v>
+        <v>31867</v>
       </c>
       <c r="B458" s="2" t="n">
-        <v>97.11</v>
+        <v>95.94</v>
       </c>
       <c r="C458" s="3" t="n">
-        <v>-17.64755766621439</v>
+        <v>-14.16301333094748</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>31808</v>
+        <v>31836</v>
       </c>
       <c r="B459" s="2" t="n">
-        <v>99.26000000000001</v>
+        <v>97.11</v>
       </c>
       <c r="C459" s="3" t="n">
-        <v>-13.74695863746958</v>
+        <v>-17.64755766621439</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>31777</v>
+        <v>31808</v>
       </c>
       <c r="B460" s="2" t="n">
-        <v>99.86</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="C460" s="3" t="n">
-        <v>-17.82422646477946</v>
+        <v>-13.74695863746958</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>31746</v>
+        <v>31777</v>
       </c>
       <c r="B461" s="2" t="n">
-        <v>103.58</v>
+        <v>99.86</v>
       </c>
       <c r="C461" s="3" t="n">
-        <v>-16.1023813380852</v>
+        <v>-17.82422646477946</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>31716</v>
+        <v>31746</v>
       </c>
       <c r="B462" s="2" t="n">
-        <v>105.92</v>
+        <v>103.58</v>
       </c>
       <c r="C462" s="3" t="n">
-        <v>-15.2572205776462</v>
+        <v>-16.1023813380852</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>31685</v>
+        <v>31716</v>
       </c>
       <c r="B463" s="2" t="n">
-        <v>109.27</v>
+        <v>105.92</v>
       </c>
       <c r="C463" s="3" t="n">
-        <v>-15.54988793569827</v>
+        <v>-15.2572205776462</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>31655</v>
+        <v>31685</v>
       </c>
       <c r="B464" s="2" t="n">
-        <v>106.74</v>
+        <v>109.27</v>
       </c>
       <c r="C464" s="3" t="n">
-        <v>-19.20980926430519</v>
+        <v>-15.54988793569827</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>31624</v>
+        <v>31655</v>
       </c>
       <c r="B465" s="2" t="n">
-        <v>106.43</v>
+        <v>106.74</v>
       </c>
       <c r="C465" s="3" t="n">
-        <v>-22.98842257597683</v>
+        <v>-19.20980926430519</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>31593</v>
+        <v>31624</v>
       </c>
       <c r="B466" s="2" t="n">
-        <v>108.04</v>
+        <v>106.43</v>
       </c>
       <c r="C466" s="3" t="n">
-        <v>-21.28806644324638</v>
+        <v>-22.98842257597683</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>31563</v>
+        <v>31593</v>
       </c>
       <c r="B467" s="2" t="n">
-        <v>111.61</v>
+        <v>108.04</v>
       </c>
       <c r="C467" s="3" t="n">
-        <v>-23.61757459622229</v>
+        <v>-21.28806644324638</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>31532</v>
+        <v>31563</v>
       </c>
       <c r="B468" s="2" t="n">
-        <v>117.51</v>
+        <v>111.61</v>
       </c>
       <c r="C468" s="3" t="n">
-        <v>-20.52617340727716</v>
+        <v>-23.61757459622229</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>31502</v>
+        <v>31532</v>
       </c>
       <c r="B469" s="2" t="n">
-        <v>111.77</v>
+        <v>117.51</v>
       </c>
       <c r="C469" s="3" t="n">
-        <v>-25.3373413493654</v>
+        <v>-20.52617340727716</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>31471</v>
+        <v>31502</v>
       </c>
       <c r="B470" s="2" t="n">
-        <v>117.92</v>
+        <v>111.77</v>
       </c>
       <c r="C470" s="3" t="n">
-        <v>-20.95455154846494</v>
+        <v>-25.3373413493654</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>31443</v>
+        <v>31471</v>
       </c>
       <c r="B471" s="2" t="n">
-        <v>115.08</v>
+        <v>117.92</v>
       </c>
       <c r="C471" s="3" t="n">
-        <v>-28.25883673087712</v>
+        <v>-20.95455154846494</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>31412</v>
+        <v>31443</v>
       </c>
       <c r="B472" s="2" t="n">
-        <v>121.52</v>
+        <v>115.08</v>
       </c>
       <c r="C472" s="3" t="n">
-        <v>-20.42954426401258</v>
+        <v>-28.25883673087712</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>31381</v>
+        <v>31412</v>
       </c>
       <c r="B473" s="2" t="n">
-        <v>123.46</v>
+        <v>121.52</v>
       </c>
       <c r="C473" s="3" t="n">
-        <v>-18.49211064897339</v>
+        <v>-20.42954426401258</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>31351</v>
+        <v>31381</v>
       </c>
       <c r="B474" s="2" t="n">
-        <v>124.99</v>
+        <v>123.46</v>
       </c>
       <c r="C474" s="3" t="n">
-        <v>-16.23215602171437</v>
+        <v>-18.49211064897339</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>31320</v>
+        <v>31351</v>
       </c>
       <c r="B475" s="2" t="n">
-        <v>129.39</v>
+        <v>124.99</v>
       </c>
       <c r="C475" s="3" t="n">
-        <v>-11.61281508299748</v>
+        <v>-16.23215602171437</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>31290</v>
+        <v>31320</v>
       </c>
       <c r="B476" s="2" t="n">
-        <v>132.12</v>
+        <v>129.39</v>
       </c>
       <c r="C476" s="3" t="n">
-        <v>-10.45747204337513</v>
+        <v>-11.61281508299748</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>31259</v>
+        <v>31290</v>
       </c>
       <c r="B477" s="2" t="n">
-        <v>138.2</v>
+        <v>132.12</v>
       </c>
       <c r="C477" s="3" t="n">
-        <v>-1.517850780303587</v>
+        <v>-10.45747204337513</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>31228</v>
+        <v>31259</v>
       </c>
       <c r="B478" s="2" t="n">
-        <v>137.26</v>
+        <v>138.2</v>
       </c>
       <c r="C478" s="3" t="n">
-        <v>-2.852289617099579</v>
+        <v>-1.517850780303587</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>31198</v>
+        <v>31228</v>
       </c>
       <c r="B479" s="2" t="n">
-        <v>146.12</v>
+        <v>137.26</v>
       </c>
       <c r="C479" s="3" t="n">
-        <v>7.236166152942913</v>
+        <v>-2.852289617099579</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>31167</v>
+        <v>31198</v>
       </c>
       <c r="B480" s="2" t="n">
-        <v>147.86</v>
+        <v>146.12</v>
       </c>
       <c r="C480" s="3" t="n">
-        <v>10.59914728102327</v>
+        <v>7.236166152942913</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>31137</v>
+        <v>31167</v>
       </c>
       <c r="B481" s="2" t="n">
-        <v>149.7</v>
+        <v>147.86</v>
       </c>
       <c r="C481" s="3" t="n">
-        <v>12.86188178528347</v>
+        <v>10.59914728102327</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>31106</v>
+        <v>31137</v>
       </c>
       <c r="B482" s="2" t="n">
-        <v>149.18</v>
+        <v>149.7</v>
       </c>
       <c r="C482" s="3" t="n">
-        <v>16.34690375916394</v>
+        <v>12.86188178528347</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>31078</v>
+        <v>31106</v>
       </c>
       <c r="B483" s="2" t="n">
-        <v>160.41</v>
+        <v>149.18</v>
       </c>
       <c r="C483" s="3" t="n">
-        <v>25.07602339181287</v>
+        <v>16.34690375916394</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>31047</v>
+        <v>31078</v>
       </c>
       <c r="B484" s="2" t="n">
-        <v>152.72</v>
+        <v>160.41</v>
       </c>
       <c r="C484" s="3" t="n">
-        <v>12.7001697291713</v>
+        <v>25.07602339181287</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>31016</v>
+        <v>31047</v>
       </c>
       <c r="B485" s="2" t="n">
-        <v>151.47</v>
+        <v>152.72</v>
       </c>
       <c r="C485" s="3" t="n">
-        <v>14.93284771226953</v>
+        <v>12.7001697291713</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>30986</v>
+        <v>31016</v>
       </c>
       <c r="B486" s="2" t="n">
-        <v>149.21</v>
+        <v>151.47</v>
       </c>
       <c r="C486" s="3" t="n">
-        <v>14.21463563992653</v>
+        <v>14.93284771226953</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>30955</v>
+        <v>30986</v>
       </c>
       <c r="B487" s="2" t="n">
-        <v>146.39</v>
+        <v>149.21</v>
       </c>
       <c r="C487" s="3" t="n">
-        <v>14.01090342679126</v>
+        <v>14.21463563992653</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>30925</v>
+        <v>30955</v>
       </c>
       <c r="B488" s="2" t="n">
-        <v>147.55</v>
+        <v>146.39</v>
       </c>
       <c r="C488" s="3" t="n">
-        <v>14.95909622126998</v>
+        <v>14.01090342679126</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>30894</v>
+        <v>30925</v>
       </c>
       <c r="B489" s="2" t="n">
-        <v>140.33</v>
+        <v>147.55</v>
       </c>
       <c r="C489" s="3" t="n">
-        <v>7.253133598287986</v>
+        <v>14.95909622126998</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>30863</v>
+        <v>30894</v>
       </c>
       <c r="B490" s="2" t="n">
-        <v>141.29</v>
+        <v>140.33</v>
       </c>
       <c r="C490" s="3" t="n">
-        <v>10.00467144191841</v>
+        <v>7.253133598287986</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>30833</v>
+        <v>30863</v>
       </c>
       <c r="B491" s="2" t="n">
-        <v>136.26</v>
+        <v>141.29</v>
       </c>
       <c r="C491" s="3" t="n">
-        <v>9.060348967504407</v>
+        <v>10.00467144191841</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>30802</v>
+        <v>30833</v>
       </c>
       <c r="B492" s="2" t="n">
-        <v>133.69</v>
+        <v>136.26</v>
       </c>
       <c r="C492" s="3" t="n">
-        <v>7.997414976977124</v>
+        <v>9.060348967504407</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>30772</v>
+        <v>30802</v>
       </c>
       <c r="B493" s="2" t="n">
-        <v>132.64</v>
+        <v>133.69</v>
       </c>
       <c r="C493" s="3" t="n">
-        <v>8.374867227714677</v>
+        <v>7.997414976977124</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>30741</v>
+        <v>30772</v>
       </c>
       <c r="B494" s="2" t="n">
-        <v>128.22</v>
+        <v>132.64</v>
       </c>
       <c r="C494" s="3" t="n">
-        <v>4.917764503723099</v>
+        <v>8.374867227714677</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>30712</v>
+        <v>30741</v>
       </c>
       <c r="B495" s="2" t="n">
-        <v>128.25</v>
+        <v>128.22</v>
       </c>
       <c r="C495" s="3" t="n">
-        <v>6.564187785625264</v>
+        <v>4.917764503723099</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>30681</v>
+        <v>30712</v>
       </c>
       <c r="B496" s="2" t="n">
-        <v>135.51</v>
+        <v>128.25</v>
       </c>
       <c r="C496" s="3" t="n">
-        <v>11.88077939233816</v>
+        <v>6.564187785625264</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>30650</v>
+        <v>30681</v>
       </c>
       <c r="B497" s="2" t="n">
-        <v>131.79</v>
+        <v>135.51</v>
       </c>
       <c r="C497" s="3" t="n">
-        <v>12.29550102249488</v>
+        <v>11.88077939233816</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>30620</v>
+        <v>30650</v>
       </c>
       <c r="B498" s="2" t="n">
-        <v>130.64</v>
+        <v>131.79</v>
       </c>
       <c r="C498" s="3" t="n">
-        <v>7.966942148760325</v>
+        <v>12.29550102249488</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>30589</v>
+        <v>30620</v>
       </c>
       <c r="B499" s="2" t="n">
-        <v>128.4</v>
+        <v>130.64</v>
       </c>
       <c r="C499" s="3" t="n">
-        <v>2.901105946465776</v>
+        <v>7.966942148760325</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>30559</v>
+        <v>30589</v>
       </c>
       <c r="B500" s="2" t="n">
-        <v>128.35</v>
+        <v>128.4</v>
       </c>
       <c r="C500" s="3" t="n">
-        <v>5.032733224222574</v>
+        <v>2.901105946465776</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>30528</v>
+        <v>30559</v>
       </c>
       <c r="B501" s="2" t="n">
-        <v>130.84</v>
+        <v>128.35</v>
       </c>
       <c r="C501" s="3" t="n">
-        <v>8.770471360877874</v>
+        <v>5.032733224222574</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>30497</v>
+        <v>30528</v>
       </c>
       <c r="B502" s="2" t="n">
-        <v>128.44</v>
+        <v>130.84</v>
       </c>
       <c r="C502" s="3" t="n">
-        <v>7.887442251154986</v>
+        <v>8.770471360877874</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>30467</v>
+        <v>30497</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>124.94</v>
+        <v>128.44</v>
       </c>
       <c r="C503" s="3" t="n">
-        <v>4.956317204301075</v>
+        <v>7.887442251154986</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>30436</v>
+        <v>30467</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>123.79</v>
+        <v>124.94</v>
       </c>
       <c r="C504" s="3" t="n">
-        <v>9.752637645181306</v>
+        <v>4.956317204301075</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>30406</v>
+        <v>30436</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>122.39</v>
+        <v>123.79</v>
       </c>
       <c r="C505" s="3" t="n">
-        <v>9.668458781362022</v>
+        <v>9.752637645181306</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>30375</v>
+        <v>30406</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>122.21</v>
+        <v>122.39</v>
       </c>
       <c r="C506" s="3" t="n">
-        <v>6.51965484180248</v>
+        <v>9.668458781362022</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>30347</v>
+        <v>30375</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>120.35</v>
+        <v>122.21</v>
       </c>
       <c r="C507" s="3" t="n">
-        <v>7.522558742070928</v>
+        <v>6.51965484180248</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>30316</v>
+        <v>30347</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>121.12</v>
+        <v>120.35</v>
       </c>
       <c r="C508" s="3" t="n">
-        <v>12.11700453577711</v>
+        <v>7.522558742070928</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>30285</v>
+        <v>30316</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>117.36</v>
+        <v>121.12</v>
       </c>
       <c r="C509" s="3" t="n">
-        <v>12.10239755468527</v>
+        <v>12.11700453577711</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>30255</v>
+        <v>30285</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>121</v>
+        <v>117.36</v>
       </c>
       <c r="C510" s="3" t="n">
-        <v>17.27078891257996</v>
+        <v>12.10239755468527</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>30224</v>
+        <v>30255</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>124.78</v>
+        <v>121</v>
       </c>
       <c r="C511" s="3" t="n">
-        <v>17.57278809007821</v>
+        <v>17.27078891257996</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>30194</v>
+        <v>30224</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>122.2</v>
+        <v>124.78</v>
       </c>
       <c r="C512" s="3" t="n">
-        <v>13.43172746681518</v>
+        <v>17.57278809007821</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>30163</v>
+        <v>30194</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>120.29</v>
+        <v>122.2</v>
       </c>
       <c r="C513" s="3" t="n">
-        <v>9.076895175915855</v>
+        <v>13.43172746681518</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>30132</v>
+        <v>30163</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>119.05</v>
+        <v>120.29</v>
       </c>
       <c r="C514" s="3" t="n">
-        <v>6.561045470819904</v>
+        <v>9.076895175915855</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>30102</v>
+        <v>30132</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>119.04</v>
+        <v>119.05</v>
       </c>
       <c r="C515" s="3" t="n">
-        <v>10.51898616655835</v>
+        <v>6.561045470819904</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>30071</v>
+        <v>30102</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>112.79</v>
+        <v>119.04</v>
       </c>
       <c r="C516" s="3" t="n">
-        <v>7.470223916150553</v>
+        <v>10.51898616655835</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>30041</v>
+        <v>30071</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>111.6</v>
+        <v>112.79</v>
       </c>
       <c r="C517" s="3" t="n">
-        <v>11.10004977600796</v>
+        <v>7.470223916150553</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>30010</v>
+        <v>30041</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>114.73</v>
+        <v>111.6</v>
       </c>
       <c r="C518" s="3" t="n">
-        <v>18.57172385283175</v>
+        <v>11.10004977600796</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>29982</v>
+        <v>30010</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>111.93</v>
+        <v>114.73</v>
       </c>
       <c r="C519" s="3" t="n">
-        <v>15.32042035854111</v>
+        <v>18.57172385283175</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>29951</v>
+        <v>29982</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>108.03</v>
+        <v>111.93</v>
       </c>
       <c r="C520" s="3" t="n">
-        <v>13.42923141537169</v>
+        <v>15.32042035854111</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>29920</v>
+        <v>29951</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>104.69</v>
+        <v>108.03</v>
       </c>
       <c r="C521" s="3" t="n">
-        <v>15.82033410775527</v>
+        <v>13.42923141537169</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>29890</v>
+        <v>29920</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>103.18</v>
+        <v>104.69</v>
       </c>
       <c r="C522" s="3" t="n">
-        <v>14.63170758804577</v>
+        <v>15.82033410775527</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>29859</v>
+        <v>29890</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>106.13</v>
+        <v>103.18</v>
       </c>
       <c r="C523" s="3" t="n">
-        <v>20.0837293505318</v>
+        <v>14.63170758804577</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>29829</v>
+        <v>29859</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>107.73</v>
+        <v>106.13</v>
       </c>
       <c r="C524" s="3" t="n">
-        <v>25.23831667054175</v>
+        <v>20.0837293505318</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>29798</v>
+        <v>29829</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>110.28</v>
+        <v>107.73</v>
       </c>
       <c r="C525" s="3" t="n">
-        <v>28.45661036691904</v>
+        <v>25.23831667054175</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>29767</v>
+        <v>29798</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>111.72</v>
+        <v>110.28</v>
       </c>
       <c r="C526" s="3" t="n">
-        <v>29.78624535315986</v>
+        <v>28.45661036691904</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>29737</v>
+        <v>29767</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>107.71</v>
+        <v>111.72</v>
       </c>
       <c r="C527" s="3" t="n">
-        <v>26.42018779342721</v>
+        <v>29.78624535315986</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>29706</v>
+        <v>29737</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>104.95</v>
+        <v>107.71</v>
       </c>
       <c r="C528" s="3" t="n">
-        <v>22.13429535668567</v>
+        <v>26.42018779342721</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>29676</v>
+        <v>29706</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>100.45</v>
+        <v>104.95</v>
       </c>
       <c r="C529" s="3" t="n">
-        <v>14.00522074679378</v>
+        <v>22.13429535668567</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>29645</v>
+        <v>29676</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>96.76000000000001</v>
+        <v>100.45</v>
       </c>
       <c r="C530" s="3" t="n">
-        <v>3.39816200042744</v>
+        <v>14.00522074679378</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>29617</v>
+        <v>29645</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>97.06</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="C531" s="3" t="n">
-        <v>10.73588134626355</v>
+        <v>3.39816200042744</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>29586</v>
+        <v>29617</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>95.23999999999999</v>
+        <v>97.06</v>
       </c>
       <c r="C532" s="3" t="n">
-        <v>10.56419781750637</v>
+        <v>10.73588134626355</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>29555</v>
+        <v>29586</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>90.39</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="C533" s="3" t="n">
-        <v>5.325099044511772</v>
+        <v>10.56419781750637</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>29525</v>
+        <v>29555</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>90.01000000000001</v>
+        <v>90.39</v>
       </c>
       <c r="C534" s="3" t="n">
-        <v>3.710104850789264</v>
+        <v>5.325099044511772</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>29494</v>
+        <v>29525</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>88.38</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="C535" s="3" t="n">
-        <v>-0.6408094435075951</v>
+        <v>3.710104850789264</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>29464</v>
+        <v>29494</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>86.02</v>
+        <v>88.38</v>
       </c>
       <c r="C536" s="3" t="n">
-        <v>0.6670567583382025</v>
+        <v>-0.6408094435075951</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>29433</v>
+        <v>29464</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>85.84999999999999</v>
+        <v>86.02</v>
       </c>
       <c r="C537" s="3" t="n">
-        <v>-1.536873494666824</v>
+        <v>0.6670567583382025</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>29402</v>
+        <v>29433</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>86.08</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="C538" s="3" t="n">
-        <v>-1.408773336387592</v>
+        <v>-1.536873494666824</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>29372</v>
+        <v>29402</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>85.2</v>
+        <v>86.08</v>
       </c>
       <c r="C539" s="3" t="n">
-        <v>-3.016505406943648</v>
+        <v>-1.408773336387592</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>29341</v>
+        <v>29372</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>85.93000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="C540" s="3" t="n">
-        <v>-5.081188556279681</v>
+        <v>-3.016505406943648</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>29311</v>
+        <v>29341</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>88.11</v>
+        <v>85.93000000000001</v>
       </c>
       <c r="C541" s="3" t="n">
-        <v>-2.078239608801957</v>
+        <v>-5.081188556279681</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>29280</v>
+        <v>29311</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>93.58</v>
+        <v>88.11</v>
       </c>
       <c r="C542" s="3" t="n">
-        <v>5.704281034677505</v>
+        <v>-2.078239608801957</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>29251</v>
+        <v>29280</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>87.65000000000001</v>
+        <v>93.58</v>
       </c>
       <c r="C543" s="3" t="n">
-        <v>-0.6010433204808319</v>
+        <v>5.704281034677505</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>29220</v>
+        <v>29251</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>86.14</v>
+        <v>87.65000000000001</v>
       </c>
       <c r="C544" s="3" t="n">
-        <v>-3.060994823317575</v>
+        <v>-0.6010433204808319</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>29189</v>
+        <v>29220</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>85.81999999999999</v>
+        <v>86.14</v>
       </c>
       <c r="C545" s="3" t="n">
-        <v>-0.7861271676300685</v>
+        <v>-3.060994823317575</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>29159</v>
+        <v>29189</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>86.79000000000001</v>
+        <v>85.81999999999999</v>
       </c>
       <c r="C546" s="3" t="n">
-        <v>-3.801817778763017</v>
+        <v>-0.7861271676300685</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>29128</v>
+        <v>29159</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>88.95</v>
+        <v>86.79000000000001</v>
       </c>
       <c r="C547" s="3" t="n">
-        <v>7.07836764174794</v>
+        <v>-3.801817778763017</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>29098</v>
+        <v>29128</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>85.45</v>
+        <v>88.95</v>
       </c>
       <c r="C548" s="3" t="n">
-        <v>-3.805020826297412</v>
+        <v>7.07836764174794</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>29067</v>
+        <v>29098</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>87.19</v>
+        <v>85.45</v>
       </c>
       <c r="C549" s="3" t="n">
-        <v>-3.122222222222226</v>
+        <v>-3.805020826297412</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>29036</v>
+        <v>29067</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>87.31</v>
+        <v>87.19</v>
       </c>
       <c r="C550" s="3" t="n">
-        <v>-3.991642841433907</v>
+        <v>-3.122222222222226</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>29006</v>
+        <v>29036</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>87.84999999999999</v>
+        <v>87.31</v>
       </c>
       <c r="C551" s="3" t="n">
-        <v>-6.072917780391329</v>
+        <v>-3.991642841433907</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>28975</v>
+        <v>29006</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>90.53</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="C552" s="3" t="n">
-        <v>-5.164466792373757</v>
+        <v>-6.072917780391329</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>28945</v>
+        <v>28975</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>89.98</v>
+        <v>90.53</v>
       </c>
       <c r="C553" s="3" t="n">
-        <v>-5.898347626019662</v>
+        <v>-5.164466792373757</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>28914</v>
+        <v>28945</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>88.53</v>
+        <v>89.98</v>
       </c>
       <c r="C554" s="3" t="n">
-        <v>-5.658567774936063</v>
+        <v>-5.898347626019662</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>28886</v>
+        <v>28914</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>88.18000000000001</v>
+        <v>88.53</v>
       </c>
       <c r="C555" s="3" t="n">
-        <v>-6.78646934460887</v>
+        <v>-5.658567774936063</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>28855</v>
+        <v>28886</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>88.86</v>
+        <v>88.18000000000001</v>
       </c>
       <c r="C556" s="3" t="n">
-        <v>-8.050496688741726</v>
+        <v>-6.78646934460887</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>28824</v>
+        <v>28855</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>86.5</v>
+        <v>88.86</v>
       </c>
       <c r="C557" s="3" t="n">
-        <v>-10.30692658647864</v>
+        <v>-8.050496688741726</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>28794</v>
+        <v>28824</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>90.22</v>
+        <v>86.5</v>
       </c>
       <c r="C558" s="3" t="n">
-        <v>-10.11258344126732</v>
+        <v>-10.30692658647864</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>28763</v>
+        <v>28794</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>83.06999999999999</v>
+        <v>90.22</v>
       </c>
       <c r="C559" s="3" t="n">
-        <v>-17.71988906497624</v>
+        <v>-10.11258344126732</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>28733</v>
+        <v>28763</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>88.83</v>
+        <v>83.06999999999999</v>
       </c>
       <c r="C560" s="3" t="n">
-        <v>-13.93275845363821</v>
+        <v>-17.71988906497624</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>28702</v>
+        <v>28733</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>90</v>
+        <v>88.83</v>
       </c>
       <c r="C561" s="3" t="n">
-        <v>-13.16094172134311</v>
+        <v>-13.93275845363821</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>28671</v>
+        <v>28702</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>90.94</v>
+        <v>90</v>
       </c>
       <c r="C562" s="3" t="n">
-        <v>-11.58856698425044</v>
+        <v>-13.16094172134311</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>28641</v>
+        <v>28671</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>93.53</v>
+        <v>90.94</v>
       </c>
       <c r="C563" s="3" t="n">
-        <v>-9.928736517719571</v>
+        <v>-11.58856698425044</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>28610</v>
+        <v>28641</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>95.45999999999999</v>
+        <v>93.53</v>
       </c>
       <c r="C564" s="3" t="n">
-        <v>-8.668197474167627</v>
+        <v>-9.928736517719571</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>28580</v>
+        <v>28610</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>95.62</v>
+        <v>95.45999999999999</v>
       </c>
       <c r="C565" s="3" t="n">
-        <v>-8.401187853242643</v>
+        <v>-8.668197474167627</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>28549</v>
+        <v>28580</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>93.84</v>
+        <v>95.62</v>
       </c>
       <c r="C566" s="3" t="n">
-        <v>-10.65409882890602</v>
+        <v>-8.401187853242643</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>28521</v>
+        <v>28549</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>94.59999999999999</v>
+        <v>93.84</v>
       </c>
       <c r="C567" s="3" t="n">
-        <v>-10.12730381911459</v>
+        <v>-10.65409882890602</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>28490</v>
+        <v>28521</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>96.64</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C568" s="3" t="n">
-        <v>-8.432821678984281</v>
+        <v>-10.12730381911459</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>28459</v>
+        <v>28490</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>96.44</v>
+        <v>96.64</v>
       </c>
       <c r="C569" s="3" t="n">
-        <v>-7.765876052027543</v>
+        <v>-8.432821678984281</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>28429</v>
+        <v>28459</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>100.37</v>
+        <v>96.44</v>
       </c>
       <c r="C570" s="3" t="n">
-        <v>-5.480742066107913</v>
+        <v>-7.765876052027543</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>28398</v>
+        <v>28429</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>100.96</v>
+        <v>100.37</v>
       </c>
       <c r="C571" s="3" t="n">
-        <v>-4.700774023031906</v>
+        <v>-5.480742066107913</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>28368</v>
+        <v>28398</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>103.21</v>
+        <v>100.96</v>
       </c>
       <c r="C572" s="3" t="n">
-        <v>-2.170616113744084</v>
+        <v>-4.700774023031906</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>28337</v>
+        <v>28368</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>103.64</v>
+        <v>103.21</v>
       </c>
       <c r="C573" s="3" t="n">
-        <v>-2.346179214171296</v>
+        <v>-2.170616113744084</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>28306</v>
+        <v>28337</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>102.86</v>
+        <v>103.64</v>
       </c>
       <c r="C574" s="3" t="n">
-        <v>-3.472222222222221</v>
+        <v>-2.346179214171296</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>28276</v>
+        <v>28306</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>103.84</v>
+        <v>102.86</v>
       </c>
       <c r="C575" s="3" t="n">
-        <v>-2.625656414103528</v>
+        <v>-3.472222222222221</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>28245</v>
+        <v>28276</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>104.52</v>
+        <v>103.84</v>
       </c>
       <c r="C576" s="3" t="n">
-        <v>-2.58178767825521</v>
+        <v>-2.625656414103528</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>28215</v>
+        <v>28245</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>104.39</v>
+        <v>104.52</v>
       </c>
       <c r="C577" s="3" t="n">
-        <v>-1.732090746493464</v>
+        <v>-2.58178767825521</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>28184</v>
+        <v>28215</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>105.03</v>
+        <v>104.39</v>
       </c>
       <c r="C578" s="3" t="n">
-        <v>-0.2942851718245709</v>
+        <v>-1.732090746493464</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>28156</v>
+        <v>28184</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>105.26</v>
+        <v>105.03</v>
       </c>
       <c r="C579" s="3" t="n">
-        <v>1.543507621068896</v>
+        <v>-0.2942851718245709</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>28125</v>
+        <v>28156</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>105.54</v>
+        <v>105.26</v>
       </c>
       <c r="C580" s="3" t="n">
-        <v>1.597997689641906</v>
+        <v>1.543507621068896</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>28094</v>
+        <v>28125</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>104.56</v>
+        <v>105.54</v>
       </c>
       <c r="C581" s="3" t="n">
-        <v>1.014394744469138</v>
+        <v>1.597997689641906</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>28064</v>
+        <v>28094</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>106.19</v>
+        <v>104.56</v>
       </c>
       <c r="C582" s="3" t="n">
-        <v>2.569303583502358</v>
+        <v>1.014394744469138</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>28033</v>
+        <v>28064</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>105.94</v>
+        <v>106.19</v>
       </c>
       <c r="C583" s="3" t="n">
-        <v>4.261391595315422</v>
+        <v>2.569303583502358</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>28003</v>
+        <v>28033</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>105.5</v>
+        <v>105.94</v>
       </c>
       <c r="C584" s="3" t="n">
-        <v>1.208749040675361</v>
+        <v>4.261391595315422</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>27972</v>
+        <v>28003</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>106.13</v>
+        <v>105.5</v>
       </c>
       <c r="C585" s="3" t="n">
-        <v>4.26368012574907</v>
+        <v>1.208749040675361</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>27941</v>
+        <v>27972</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>106.56</v>
+        <v>106.13</v>
       </c>
       <c r="C586" s="3" t="n">
-        <v>5.244444444444452</v>
+        <v>4.26368012574907</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>27911</v>
+        <v>27941</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>106.64</v>
+        <v>106.56</v>
       </c>
       <c r="C587" s="3" t="n">
-        <v>11.24556645107448</v>
+        <v>5.244444444444452</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>27880</v>
+        <v>27911</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>107.29</v>
+        <v>106.64</v>
       </c>
       <c r="C588" s="3" t="n">
-        <v>13.37842121948642</v>
+        <v>11.24556645107448</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>27850</v>
+        <v>27880</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>106.23</v>
+        <v>107.29</v>
       </c>
       <c r="C589" s="3" t="n">
-        <v>11.36387461998114</v>
+        <v>13.37842121948642</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>27819</v>
+        <v>27850</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>105.34</v>
+        <v>106.23</v>
       </c>
       <c r="C590" s="3" t="n">
-        <v>11.09470575827887</v>
+        <v>11.36387461998114</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>27790</v>
+        <v>27819</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>103.66</v>
+        <v>105.34</v>
       </c>
       <c r="C591" s="3" t="n">
-        <v>11.46236559139784</v>
+        <v>11.09470575827887</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>27759</v>
+        <v>27790</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>103.88</v>
+        <v>103.66</v>
       </c>
       <c r="C592" s="3" t="n">
-        <v>8.649722832339712</v>
+        <v>11.46236559139784</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>27728</v>
+        <v>27759</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>103.51</v>
+        <v>103.88</v>
       </c>
       <c r="C593" s="3" t="n">
-        <v>6.393257272073183</v>
+        <v>8.649722832339712</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>27698</v>
+        <v>27728</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>103.53</v>
+        <v>103.51</v>
       </c>
       <c r="C594" s="3" t="n">
-        <v>3.977101536607419</v>
+        <v>6.393257272073183</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>27667</v>
+        <v>27698</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>101.61</v>
+        <v>103.53</v>
       </c>
       <c r="C595" s="3" t="n">
-        <v>0.3456448745802865</v>
+        <v>3.977101536607419</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>27637</v>
+        <v>27667</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>104.24</v>
+        <v>101.61</v>
       </c>
       <c r="C596" s="3" t="n">
-        <v>1.717408274785326</v>
+        <v>0.3456448745802865</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>27606</v>
+        <v>27637</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>101.79</v>
+        <v>104.24</v>
       </c>
       <c r="C597" s="3" t="n">
-        <v>-1.347160302384187</v>
+        <v>1.717408274785326</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>27575</v>
+        <v>27606</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>101.25</v>
+        <v>101.79</v>
       </c>
       <c r="C598" s="3" t="n">
-        <v>0.7061865924010258</v>
+        <v>-1.347160302384187</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>27545</v>
+        <v>27575</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>95.86</v>
+        <v>101.25</v>
       </c>
       <c r="C599" s="3" t="n">
-        <v>-4.293130990415328</v>
+        <v>0.7061865924010258</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>27514</v>
+        <v>27545</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>94.63</v>
+        <v>95.86</v>
       </c>
       <c r="C600" s="3" t="n">
-        <v>-5.151849253282547</v>
+        <v>-4.293130990415328</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>27484</v>
+        <v>27514</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>95.39</v>
+        <v>94.63</v>
       </c>
       <c r="C601" s="3" t="n">
-        <v>-3.147527667783523</v>
+        <v>-5.151849253282547</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>27453</v>
+        <v>27484</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>94.81999999999999</v>
+        <v>95.39</v>
       </c>
       <c r="C602" s="3" t="n">
-        <v>-4.713094161390829</v>
+        <v>-3.147527667783523</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>27425</v>
+        <v>27453</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>93</v>
+        <v>94.81999999999999</v>
       </c>
       <c r="C603" s="3" t="n">
-        <v>-9.73502863243716</v>
+        <v>-4.713094161390829</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>27394</v>
+        <v>27425</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>95.61</v>
+        <v>93</v>
       </c>
       <c r="C604" s="3" t="n">
-        <v>-9.716713881019833</v>
+        <v>-9.73502863243716</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>27363</v>
+        <v>27394</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>97.29000000000001</v>
+        <v>95.61</v>
       </c>
       <c r="C605" s="3" t="n">
-        <v>-4.980955171403457</v>
+        <v>-9.716713881019833</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>27333</v>
+        <v>27363</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>99.56999999999999</v>
+        <v>97.29000000000001</v>
       </c>
       <c r="C606" s="3" t="n">
-        <v>-0.7772795216741457</v>
+        <v>-4.980955171403457</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>27302</v>
+        <v>27333</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>101.26</v>
+        <v>99.56999999999999</v>
       </c>
       <c r="C607" s="3" t="n">
-        <v>6.522196507468969</v>
+        <v>-0.7772795216741457</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>27272</v>
+        <v>27302</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>102.48</v>
+        <v>101.26</v>
       </c>
       <c r="C608" s="3" t="n">
-        <v>8.112670112881105</v>
+        <v>6.522196507468969</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>27241</v>
+        <v>27272</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>103.18</v>
+        <v>102.48</v>
       </c>
       <c r="C609" s="3" t="n">
-        <v>7.737287250704816</v>
+        <v>8.112670112881105</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>27210</v>
+        <v>27241</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>100.54</v>
+        <v>103.18</v>
       </c>
       <c r="C610" s="3" t="n">
-        <v>8.212248412442168</v>
+        <v>7.737287250704816</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>27180</v>
+        <v>27210</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>100.16</v>
+        <v>100.54</v>
       </c>
       <c r="C611" s="3" t="n">
-        <v>6.689390711546661</v>
+        <v>8.212248412442168</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>27149</v>
+        <v>27180</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>99.77</v>
+        <v>100.16</v>
       </c>
       <c r="C612" s="3" t="n">
-        <v>1.806122448979597</v>
+        <v>6.689390711546661</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>27119</v>
+        <v>27149</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>98.48999999999999</v>
+        <v>99.77</v>
       </c>
       <c r="C613" s="3" t="n">
-        <v>-2.898550724637694</v>
+        <v>1.806122448979597</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>27088</v>
+        <v>27119</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>99.51000000000001</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="C614" s="3" t="n">
-        <v>-1.640802609469205</v>
+        <v>-2.898550724637694</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>27060</v>
+        <v>27088</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>103.03</v>
+        <v>99.51000000000001</v>
       </c>
       <c r="C615" s="3" t="n">
-        <v>2.896234894636973</v>
+        <v>-1.640802609469205</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>27029</v>
+        <v>27060</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>105.9</v>
+        <v>103.03</v>
       </c>
       <c r="C616" s="3" t="n">
-        <v>-2.852949270709104</v>
+        <v>2.896234894636973</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>26998</v>
+        <v>27029</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>102.39</v>
+        <v>105.9</v>
       </c>
       <c r="C617" s="3" t="n">
-        <v>-7.036499001271112</v>
+        <v>-2.852949270709104</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>26968</v>
+        <v>26998</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>100.35</v>
+        <v>102.39</v>
       </c>
       <c r="C618" s="3" t="n">
-        <v>-8.648156577150656</v>
+        <v>-7.036499001271112</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>26937</v>
+        <v>26968</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>95.06</v>
+        <v>100.35</v>
       </c>
       <c r="C619" s="3" t="n">
-        <v>-13.50318471337579</v>
+        <v>-8.648156577150656</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>26907</v>
+        <v>26937</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>94.79000000000001</v>
+        <v>95.06</v>
       </c>
       <c r="C620" s="3" t="n">
-        <v>-13.34674101837462</v>
+        <v>-13.50318471337579</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>26876</v>
+        <v>26907</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>95.77</v>
+        <v>94.79000000000001</v>
       </c>
       <c r="C621" s="3" t="n">
-        <v>-12.10535976505139</v>
+        <v>-13.34674101837462</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>26845</v>
+        <v>26876</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>92.91</v>
+        <v>95.77</v>
       </c>
       <c r="C622" s="3" t="n">
-        <v>-14.57337256344244</v>
+        <v>-12.10535976505139</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>26815</v>
+        <v>26845</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>93.88</v>
+        <v>92.91</v>
       </c>
       <c r="C623" s="3" t="n">
-        <v>-13.48262832918626</v>
+        <v>-14.57337256344244</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>26784</v>
+        <v>26815</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>98</v>
+        <v>93.88</v>
       </c>
       <c r="C624" s="3" t="n">
-        <v>-9.401867430895816</v>
+        <v>-13.48262832918626</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>26754</v>
+        <v>26784</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>101.43</v>
+        <v>98</v>
       </c>
       <c r="C625" s="3" t="n">
-        <v>-6.619407107346708</v>
+        <v>-9.401867430895816</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>26723</v>
+        <v>26754</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>101.17</v>
+        <v>101.43</v>
       </c>
       <c r="C626" s="3" t="n">
-        <v>-6.669741697416976</v>
+        <v>-6.619407107346708</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>26695</v>
+        <v>26723</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>100.13</v>
+        <v>101.17</v>
       </c>
       <c r="C627" s="3" t="n">
-        <v>-7.867132867132876</v>
+        <v>-6.669741697416976</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>26664</v>
+        <v>26695</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>109.01</v>
+        <v>100.13</v>
       </c>
       <c r="C628" s="3" t="n">
-        <v>-0.5383211678832045</v>
+        <v>-7.867132867132876</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>26633</v>
+        <v>26664</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>110.14</v>
+        <v>109.01</v>
       </c>
       <c r="C629" s="3" t="n">
-        <v>-0.9621436921140147</v>
+        <v>-0.5383211678832045</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>26603</v>
+        <v>26633</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>109.85</v>
+        <v>110.14</v>
       </c>
       <c r="C630" s="3" t="n">
-        <v>-3.648802736602064</v>
+        <v>-0.9621436921140147</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>26572</v>
+        <v>26603</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>109.9</v>
+        <v>109.85</v>
       </c>
       <c r="C631" s="3" t="n">
-        <v>-4.143044047099864</v>
+        <v>-3.648802736602064</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>26542</v>
+        <v>26572</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>109.39</v>
+        <v>109.9</v>
       </c>
       <c r="C632" s="3" t="n">
-        <v>-4.820325415470295</v>
+        <v>-4.143044047099864</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>26511</v>
+        <v>26542</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>108.96</v>
+        <v>109.39</v>
       </c>
       <c r="C633" s="3" t="n">
-        <v>-6.448012363698807</v>
+        <v>-4.820325415470295</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>26480</v>
+        <v>26511</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>108.76</v>
+        <v>108.96</v>
       </c>
       <c r="C634" s="3" t="n">
-        <v>-8.42034355001684</v>
+        <v>-6.448012363698807</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>26450</v>
+        <v>26480</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>108.51</v>
+        <v>108.76</v>
       </c>
       <c r="C635" s="3" t="n">
-        <v>-8.937562940584076</v>
+        <v>-8.42034355001684</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>26419</v>
+        <v>26450</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>108.17</v>
+        <v>108.51</v>
       </c>
       <c r="C636" s="3" t="n">
-        <v>-9.428116888553973</v>
+        <v>-8.937562940584076</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>26389</v>
+        <v>26419</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>108.62</v>
+        <v>108.17</v>
       </c>
       <c r="C637" s="3" t="n">
-        <v>-9.626424827356683</v>
+        <v>-9.428116888553973</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>26358</v>
+        <v>26389</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>108.4</v>
+        <v>108.62</v>
       </c>
       <c r="C638" s="3" t="n">
-        <v>-9.794457851377214</v>
+        <v>-9.626424827356683</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>26329</v>
+        <v>26358</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>108.68</v>
+        <v>108.4</v>
       </c>
       <c r="C639" s="3" t="n">
-        <v>-9.629136870114753</v>
+        <v>-9.794457851377214</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>26298</v>
+        <v>26329</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>109.6</v>
-      </c>
-      <c r="C640" s="3" t="n"/>
+        <v>108.68</v>
+      </c>
+      <c r="C640" s="3" t="n">
+        <v>-9.629136870114753</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>26267</v>
+        <v>26298</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>111.21</v>
+        <v>109.6</v>
       </c>
       <c r="C641" s="3" t="n"/>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>26237</v>
+        <v>26267</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>114.01</v>
+        <v>111.21</v>
       </c>
       <c r="C642" s="3" t="n"/>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>26206</v>
+        <v>26237</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>114.65</v>
+        <v>114.01</v>
       </c>
       <c r="C643" s="3" t="n"/>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>26176</v>
+        <v>26206</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>114.93</v>
+        <v>114.65</v>
       </c>
       <c r="C644" s="3" t="n"/>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>26145</v>
+        <v>26176</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>116.47</v>
+        <v>114.93</v>
       </c>
       <c r="C645" s="3" t="n"/>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>26114</v>
+        <v>26145</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>118.76</v>
+        <v>116.47</v>
       </c>
       <c r="C646" s="3" t="n"/>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>26084</v>
+        <v>26114</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>119.16</v>
+        <v>118.76</v>
       </c>
       <c r="C647" s="3" t="n"/>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>26053</v>
+        <v>26084</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>119.43</v>
+        <v>119.16</v>
       </c>
       <c r="C648" s="3" t="n"/>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>26023</v>
+        <v>26053</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>120.19</v>
+        <v>119.43</v>
       </c>
       <c r="C649" s="3" t="n"/>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>25992</v>
+        <v>26023</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>120.17</v>
+        <v>120.19</v>
       </c>
       <c r="C650" s="3" t="n"/>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
+        <v>25992</v>
+      </c>
+      <c r="B651" s="2" t="n">
+        <v>120.17</v>
+      </c>
+      <c r="C651" s="3" t="n"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
         <v>25964</v>
       </c>
-      <c r="B651" s="2" t="n">
+      <c r="B652" s="2" t="n">
         <v>120.26</v>
       </c>
-      <c r="C651" s="3" t="n"/>
+      <c r="C652" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/dollar.xlsx
+++ b/data/dollar.xlsx
@@ -486,13 +486,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>45698</v>
+        <v>45699</v>
       </c>
       <c r="B2" t="n">
-        <v>108.2870025634766</v>
+        <v>108.359001159668</v>
       </c>
       <c r="C2" t="n">
-        <v>1.945963625942904</v>
+        <v>2.013746149188456</v>
       </c>
     </row>
     <row r="3">

--- a/data/dollar.xlsx
+++ b/data/dollar.xlsx
@@ -486,13 +486,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>45699</v>
+        <v>45700</v>
       </c>
       <c r="B2" t="n">
-        <v>108.359001159668</v>
+        <v>107.9990005493164</v>
       </c>
       <c r="C2" t="n">
-        <v>2.013746149188456</v>
+        <v>1.67482635032612</v>
       </c>
     </row>
     <row r="3">

--- a/data/dollar.xlsx
+++ b/data/dollar.xlsx
@@ -486,13 +486,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>45700</v>
+        <v>45701</v>
       </c>
       <c r="B2" t="n">
-        <v>107.9990005493164</v>
+        <v>107.5449981689453</v>
       </c>
       <c r="C2" t="n">
-        <v>1.67482635032612</v>
+        <v>1.247409309871328</v>
       </c>
     </row>
     <row r="3">

--- a/data/dollar.xlsx
+++ b/data/dollar.xlsx
@@ -486,13 +486,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>45701</v>
+        <v>45702</v>
       </c>
       <c r="B2" t="n">
-        <v>107.5449981689453</v>
+        <v>107.0070037841797</v>
       </c>
       <c r="C2" t="n">
-        <v>1.247409309871328</v>
+        <v>0.7409186444922611</v>
       </c>
     </row>
     <row r="3">

--- a/data/dollar.xlsx
+++ b/data/dollar.xlsx
@@ -489,10 +489,10 @@
         <v>45702</v>
       </c>
       <c r="B2" t="n">
-        <v>107.0070037841797</v>
+        <v>106.5699996948242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7409186444922611</v>
+        <v>0.3295045140502939</v>
       </c>
     </row>
     <row r="3">

--- a/data/dollar.xlsx
+++ b/data/dollar.xlsx
@@ -489,10 +489,10 @@
         <v>45702</v>
       </c>
       <c r="B2" t="n">
-        <v>106.5699996948242</v>
+        <v>106.7929992675781</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3295045140502939</v>
+        <v>0.5394457424007904</v>
       </c>
     </row>
     <row r="3">

--- a/data/dollar.xlsx
+++ b/data/dollar.xlsx
@@ -486,13 +486,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B2" t="n">
-        <v>106.7929992675781</v>
+        <v>106.7850036621094</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5394457424007904</v>
+        <v>0.5319183412816564</v>
       </c>
     </row>
     <row r="3">

--- a/data/dollar.xlsx
+++ b/data/dollar.xlsx
@@ -486,13 +486,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="B2" t="n">
-        <v>106.7850036621094</v>
+        <v>106.9029998779297</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5319183412816564</v>
+        <v>0.643004968866201</v>
       </c>
     </row>
     <row r="3">
